--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD5F228-509E-4964-BE59-E54E5CBDDD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DA48B0D8-2591-4174-87E9-ADD41CEDC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92E2DBB-9F9B-4215-B861-F7892CA6A9B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="892" firstSheet="5" activeTab="17" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="892" firstSheet="4" activeTab="17" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="1126">
   <si>
     <t>データ項目（法人）</t>
     <rPh sb="3" eb="5">
@@ -6476,13 +6476,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>住所</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>敷地面積</t>
   </si>
   <si>
@@ -6528,12 +6521,6 @@
     <t>住所情報（住所型）</t>
   </si>
   <si>
-    <t>土地の敷地面積(m2)</t>
-  </si>
-  <si>
-    <t>土地の形状を表す情報</t>
-  </si>
-  <si>
     <t>連絡先の情報（連絡先型）</t>
   </si>
   <si>
@@ -6589,9 +6576,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>tran:usage</t>
-  </si>
-  <si>
     <t>gml:name</t>
   </si>
   <si>
@@ -6599,9 +6583,6 @@
   </si>
   <si>
     <t>gml:envelope</t>
-  </si>
-  <si>
-    <t>bldg:BuilbingPart</t>
   </si>
   <si>
     <t>bldg:address</t>
@@ -6637,12 +6618,6 @@
     <t>関連建物</t>
   </si>
   <si>
-    <t>建物住所</t>
-  </si>
-  <si>
-    <t>主な機能</t>
-  </si>
-  <si>
     <t>主要用途</t>
   </si>
   <si>
@@ -6667,9 +6642,6 @@
     <t>竣工日</t>
   </si>
   <si>
-    <t>建物</t>
-  </si>
-  <si>
     <t>連絡先情報</t>
   </si>
   <si>
@@ -6737,9 +6709,6 @@
   </si>
   <si>
     <t>建物の竣工日</t>
-  </si>
-  <si>
-    <t>建物に関連する建物</t>
   </si>
   <si>
     <t>アクセリビリティ情報（アクセシビリティ型）</t>
@@ -6826,9 +6795,6 @@
     <t>種類</t>
   </si>
   <si>
-    <t>設備住所</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -6863,9 +6829,6 @@
   </si>
   <si>
     <t>定型で表せない設備の利用日時情報</t>
-  </si>
-  <si>
-    <t>設備の建築面積(m2)</t>
   </si>
   <si>
     <t>設備の備考</t>
@@ -6885,6 +6848,100 @@
   </si>
   <si>
     <t>frn:function</t>
+  </si>
+  <si>
+    <t>土地の形状を表す情報</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CityGML（PLATEAU）</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>土地の敷地面積(m2)U</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PD:ID情報型</t>
+    <rPh sb="5" eb="8">
+      <t>ジョウホウガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>耐火建物</t>
+    <rPh sb="0" eb="4">
+      <t>タイカタテモノ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ショップ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>主要機能</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「稼働中」などのステータス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AEDの設置場所写真のURLなど</t>
+    <rPh sb="4" eb="8">
+      <t>セッチバショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PD:設備型</t>
+    <rPh sb="3" eb="6">
+      <t>セツビガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地住所</t>
+    <rPh sb="0" eb="2">
+      <t>トチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物住所</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備住所</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>luse:usage</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>gml:MeasureType</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bldg:BuildingPart</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -7466,6 +7523,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7495,9 +7555,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8164,8 +8221,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A14" zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -8200,23 +8257,23 @@
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="A2" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40" t="s">
@@ -9264,8 +9321,8 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="57" zoomScaleNormal="64" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F3" zoomScale="57" zoomScaleNormal="64" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -9300,23 +9357,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>850</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -9721,7 +9778,7 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="57" zoomScaleNormal="64" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="57" zoomScaleNormal="64" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -9757,23 +9814,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>886</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -10130,23 +10187,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>995</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="58.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -10509,23 +10566,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>889</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="58.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -10890,23 +10947,23 @@
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>896</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40" t="s">
@@ -11458,23 +11515,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>994</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -12062,13 +12119,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C561344E-2A31-4406-A230-D26DBFF91A45}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M4:M13"/>
+    <sheetView topLeftCell="I4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="18" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="18" customWidth="1"/>
@@ -12077,7 +12134,7 @@
     <col min="7" max="7" width="24.58203125" style="19" customWidth="1"/>
     <col min="8" max="8" width="80.58203125" style="18" customWidth="1"/>
     <col min="9" max="9" width="25.58203125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="52.58203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="41.9140625" style="18" customWidth="1"/>
     <col min="11" max="11" width="12.08203125" style="18" customWidth="1"/>
     <col min="12" max="12" width="44.58203125" style="18" customWidth="1"/>
     <col min="13" max="13" width="25.58203125" style="18" customWidth="1"/>
@@ -12085,7 +12142,7 @@
     <col min="15" max="16384" width="8.08203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12101,24 +12158,24 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
+      <c r="A2" s="98" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
     </row>
     <row r="3" spans="1:14" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="91" t="s">
@@ -12161,10 +12218,10 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12183,20 +12240,20 @@
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1020</v>
+        <v>1113</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="8" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="103"/>
-    </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" s="93"/>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12217,7 +12274,7 @@
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>718</v>
@@ -12225,14 +12282,14 @@
       <c r="J5" s="92"/>
       <c r="K5" s="11"/>
       <c r="L5" s="8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="103" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" s="93" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12251,7 +12308,7 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>559</v>
@@ -12259,14 +12316,14 @@
       <c r="J6" s="92"/>
       <c r="K6" s="11"/>
       <c r="L6" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12285,7 +12342,7 @@
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>559</v>
@@ -12293,14 +12350,14 @@
       <c r="J7" s="92"/>
       <c r="K7" s="11"/>
       <c r="L7" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12319,7 +12376,7 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>559</v>
@@ -12327,14 +12384,14 @@
       <c r="J8" s="8"/>
       <c r="K8" s="11"/>
       <c r="L8" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N8" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12353,7 +12410,7 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>559</v>
@@ -12361,12 +12418,12 @@
       <c r="J9" s="92"/>
       <c r="K9" s="11"/>
       <c r="L9" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="103"/>
-    </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N9" s="93"/>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12385,7 +12442,7 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>559</v>
@@ -12393,14 +12450,14 @@
       <c r="J10" s="35"/>
       <c r="K10" s="14"/>
       <c r="L10" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="103" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N10" s="93" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12408,7 +12465,7 @@
         <v>545</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1004</v>
+        <v>1120</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>17</v>
@@ -12421,7 +12478,7 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>687</v>
@@ -12429,14 +12486,14 @@
       <c r="J11" s="35"/>
       <c r="K11" s="11"/>
       <c r="L11" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="103" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N11" s="93" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12444,7 +12501,7 @@
         <v>545</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -12457,19 +12514,19 @@
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="8" t="s">
-        <v>1017</v>
+        <v>1112</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J12" s="92"/>
       <c r="K12" s="11"/>
       <c r="L12" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="103" t="s">
-        <v>1036</v>
+      <c r="N12" s="93" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -12480,7 +12537,7 @@
         <v>545</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
@@ -12491,7 +12548,7 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="8" t="s">
-        <v>1018</v>
+        <v>1110</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>873</v>
@@ -12502,11 +12559,9 @@
       <c r="K13" s="11"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="103" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N13" s="93"/>
+    </row>
+    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12533,12 +12588,12 @@
       <c r="J14" s="92"/>
       <c r="K14" s="11"/>
       <c r="L14" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="103"/>
-    </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N14" s="93"/>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -12546,7 +12601,7 @@
         <v>545</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7">
@@ -12557,7 +12612,7 @@
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="8" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>423</v>
@@ -12565,12 +12620,12 @@
       <c r="J15" s="92"/>
       <c r="K15" s="14"/>
       <c r="L15" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="103"/>
-    </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N15" s="93"/>
+    </row>
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -12584,9 +12639,9 @@
       <c r="K16" s="11"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="103"/>
-    </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N16" s="93"/>
+    </row>
+    <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -12600,9 +12655,9 @@
       <c r="K17" s="14"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="103"/>
-    </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N17" s="93"/>
+    </row>
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -12616,9 +12671,9 @@
       <c r="K18" s="14"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="103"/>
-    </row>
-    <row r="19" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N18" s="93"/>
+    </row>
+    <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -12632,9 +12687,9 @@
       <c r="K19" s="11"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="103"/>
-    </row>
-    <row r="20" spans="1:14" s="51" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N19" s="93"/>
+    </row>
+    <row r="20" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="65"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -12651,7 +12706,6 @@
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
     </row>
-    <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:J2"/>
@@ -12670,13 +12724,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EBF242-F9C7-4C2C-B12F-71114EF03E4D}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N28" sqref="N4:N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="18" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="18" customWidth="1"/>
@@ -12693,7 +12747,7 @@
     <col min="15" max="16384" width="8.08203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12709,24 +12763,24 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
+      <c r="A2" s="98" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
     </row>
     <row r="3" spans="1:14" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="91" t="s">
@@ -12769,10 +12823,10 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12782,33 +12836,31 @@
       <c r="C4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="8" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="8" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="103" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" s="93" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12816,7 +12868,7 @@
         <v>545</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
@@ -12827,7 +12879,7 @@
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="8" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>718</v>
@@ -12836,9 +12888,9 @@
       <c r="K5" s="11"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="103"/>
-    </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" s="93"/>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12859,22 +12911,22 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="8" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J6" s="92"/>
       <c r="K6" s="11"/>
       <c r="L6" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12895,22 +12947,22 @@
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="8" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J7" s="92"/>
       <c r="K7" s="11"/>
       <c r="L7" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12931,22 +12983,22 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="8" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="11"/>
       <c r="L8" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N8" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12965,20 +13017,20 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="8" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J9" s="92"/>
       <c r="K9" s="11"/>
       <c r="L9" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="103"/>
-    </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N9" s="93"/>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12988,33 +13040,31 @@
       <c r="C10" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="8" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="14"/>
       <c r="L10" s="8" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="103" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N10" s="93" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -13035,22 +13085,22 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="8" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="11"/>
       <c r="L11" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="103" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N11" s="93" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -13058,7 +13108,7 @@
         <v>545</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
@@ -13069,22 +13119,22 @@
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="8" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="J12" s="92"/>
       <c r="K12" s="11"/>
       <c r="L12" s="8" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="103" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N12" s="93" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -13103,18 +13153,18 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="8" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="11"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="103"/>
-    </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N13" s="93"/>
+    </row>
+    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13122,7 +13172,7 @@
         <v>545</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1043</v>
+        <v>1121</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>17</v>
@@ -13135,7 +13185,7 @@
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>687</v>
@@ -13143,14 +13193,14 @@
       <c r="J14" s="92"/>
       <c r="K14" s="11"/>
       <c r="L14" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="103" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N14" s="93" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -13169,20 +13219,20 @@
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="8" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="J15" s="92"/>
       <c r="K15" s="14"/>
       <c r="L15" s="8" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="103"/>
-    </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N15" s="93"/>
+    </row>
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -13190,7 +13240,7 @@
         <v>545</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7">
@@ -13201,20 +13251,22 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="8" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J16" s="92"/>
       <c r="K16" s="11"/>
       <c r="L16" s="8" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="103"/>
-    </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N16" s="93" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -13222,7 +13274,7 @@
         <v>545</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1044</v>
+        <v>1116</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
@@ -13233,20 +13285,22 @@
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="8" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J17" s="8"/>
+        <v>1018</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>1114</v>
+      </c>
       <c r="K17" s="14"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="103" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N17" s="93" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -13254,7 +13308,7 @@
         <v>545</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
@@ -13265,22 +13319,24 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J18" s="8"/>
+        <v>1018</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>1115</v>
+      </c>
       <c r="K18" s="14"/>
       <c r="L18" s="8" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="103" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N18" s="93" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -13288,7 +13344,7 @@
         <v>545</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
@@ -13299,20 +13355,20 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="14"/>
       <c r="L19" s="8" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="103"/>
-    </row>
-    <row r="20" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N19" s="93"/>
+    </row>
+    <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -13320,7 +13376,7 @@
         <v>545</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7">
@@ -13331,20 +13387,20 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="14"/>
       <c r="L20" s="8" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="103"/>
-    </row>
-    <row r="21" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N20" s="93"/>
+    </row>
+    <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -13352,7 +13408,7 @@
         <v>545</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7">
@@ -13363,22 +13419,22 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="14"/>
       <c r="L21" s="8" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="M21" s="8"/>
-      <c r="N21" s="103" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N21" s="93" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -13386,7 +13442,7 @@
         <v>545</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7">
@@ -13397,22 +13453,22 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="14"/>
       <c r="L22" s="8" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="103" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N22" s="93" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -13420,7 +13476,7 @@
         <v>545</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7">
@@ -13431,22 +13487,22 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="14"/>
       <c r="L23" s="8" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="103" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N23" s="93" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -13454,7 +13510,7 @@
         <v>545</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7">
@@ -13465,7 +13521,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>718</v>
@@ -13473,12 +13529,12 @@
       <c r="J24" s="8"/>
       <c r="K24" s="14"/>
       <c r="L24" s="8" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="103"/>
-    </row>
-    <row r="25" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N24" s="93"/>
+    </row>
+    <row r="25" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -13486,7 +13542,7 @@
         <v>545</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7">
@@ -13497,7 +13553,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>632</v>
@@ -13505,22 +13561,22 @@
       <c r="J25" s="8"/>
       <c r="K25" s="14"/>
       <c r="L25" s="8" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="103" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N25" s="93" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>545</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1053</v>
+        <v>660</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7">
@@ -13531,28 +13587,25 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="8" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>1079</v>
+        <v>1018</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="8" t="s">
-        <v>1027</v>
-      </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="103"/>
-    </row>
-    <row r="27" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N26" s="93"/>
+    </row>
+    <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>545</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>660</v>
+        <v>1046</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7">
@@ -13563,25 +13616,28 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="8" t="s">
-        <v>1081</v>
+        <v>1016</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>1021</v>
+        <v>423</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="14"/>
+      <c r="L27" s="8" t="s">
+        <v>1027</v>
+      </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="103"/>
-    </row>
-    <row r="28" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N27" s="93"/>
+    </row>
+    <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>545</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7">
@@ -13592,56 +13648,23 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8" t="s">
-        <v>1019</v>
+        <v>1069</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="8" t="s">
-        <v>1030</v>
-      </c>
+      <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="103"/>
-    </row>
-    <row r="29" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="6">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="103"/>
-    </row>
-    <row r="30" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="G30" s="37" t="s">
+      <c r="N28" s="93"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="H29" s="65"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:J2"/>
@@ -13660,13 +13683,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93539E85-99AE-4E80-9A6D-357308F62CD5}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="18" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="18" customWidth="1"/>
@@ -13683,7 +13706,7 @@
     <col min="15" max="16384" width="8.08203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13699,24 +13722,24 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
+      <c r="A2" s="98" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
     </row>
     <row r="3" spans="1:14" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="91" t="s">
@@ -13759,10 +13782,10 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13772,31 +13795,29 @@
       <c r="C4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="8" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="8" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="103"/>
-    </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" s="93"/>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13804,7 +13825,7 @@
         <v>545</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
@@ -13815,7 +13836,7 @@
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="8" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>718</v>
@@ -13824,11 +13845,11 @@
       <c r="K5" s="11"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="103" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" s="93" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13836,7 +13857,7 @@
         <v>545</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
@@ -13847,7 +13868,7 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="8" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>718</v>
@@ -13856,11 +13877,11 @@
       <c r="K6" s="11"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="103" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="93" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13881,22 +13902,22 @@
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="8" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J7" s="92"/>
       <c r="K7" s="11"/>
       <c r="L7" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13917,22 +13938,22 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="8" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="11"/>
       <c r="L8" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N8" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13953,22 +13974,22 @@
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="8" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J9" s="92"/>
       <c r="K9" s="11"/>
       <c r="L9" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N9" s="93" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13978,33 +13999,31 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="8" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="14"/>
       <c r="L10" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="103" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N10" s="93" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -14023,18 +14042,18 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="8" t="s">
-        <v>1065</v>
+        <v>1117</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="11"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="103"/>
-    </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N11" s="93"/>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -14042,7 +14061,7 @@
         <v>545</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1102</v>
+        <v>1122</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -14055,22 +14074,22 @@
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="J12" s="92"/>
       <c r="K12" s="11"/>
       <c r="L12" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="103" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N12" s="93" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -14089,20 +14108,20 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="8" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="11"/>
       <c r="L13" s="8" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="103"/>
-    </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N13" s="93"/>
+    </row>
+    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -14121,7 +14140,7 @@
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="8" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>687</v>
@@ -14129,12 +14148,12 @@
       <c r="J14" s="92"/>
       <c r="K14" s="11"/>
       <c r="L14" s="8" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="103"/>
-    </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N14" s="93"/>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -14153,20 +14172,20 @@
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="8" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="J15" s="92"/>
       <c r="K15" s="14"/>
       <c r="L15" s="8" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="103"/>
-    </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N15" s="93"/>
+    </row>
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -14185,20 +14204,20 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="8" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J16" s="92"/>
       <c r="K16" s="11"/>
       <c r="L16" s="8" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="103"/>
-    </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N16" s="93"/>
+    </row>
+    <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -14206,7 +14225,7 @@
         <v>545</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
@@ -14217,20 +14236,20 @@
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="8" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="14"/>
       <c r="L17" s="8" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="103"/>
-    </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N17" s="93"/>
+    </row>
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -14249,20 +14268,20 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="14"/>
       <c r="L18" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="103"/>
-    </row>
-    <row r="19" spans="1:14" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N18" s="93"/>
+    </row>
+    <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -14270,7 +14289,7 @@
         <v>545</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
@@ -14281,36 +14300,25 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>1019</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>1022</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="14"/>
       <c r="L19" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="103"/>
-    </row>
-    <row r="20" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="N19" s="93"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" s="37" t="s">
         <v>159</v>
       </c>
       <c r="H20" s="65"/>
     </row>
-    <row r="21" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:14" ht="19.5" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:J2"/>
@@ -14334,8 +14342,8 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="64" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="70" zoomScaleNormal="64" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -14370,23 +14378,23 @@
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40" t="s">
@@ -14611,23 +14619,23 @@
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40" t="s">
@@ -16867,23 +16875,23 @@
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>430</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40" t="s">
@@ -17933,23 +17941,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -19294,23 +19302,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>696</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -19522,23 +19530,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>705</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -19746,23 +19754,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>714</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -19934,8 +19942,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="70" zoomScaleNormal="64" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="64" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -19970,23 +19978,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>992</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -20491,8 +20499,8 @@
       <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="7">
-        <v>1</v>
+      <c r="F16" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>778</v>
@@ -20501,7 +20509,7 @@
         <v>779</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>559</v>
+        <v>1119</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>780</v>
@@ -21277,11 +21285,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AA06A8A97B81CB449FCF07970FCC7F2C" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e098a45b3705cfc2493009b57a546a4a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f29c99a9-2f7a-4302-86cb-05f0a42840fb" xmlns:ns3="418539d9-ccaa-4f07-ad3e-d267fe6a0194" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f840fee6fb3897cc9ba6eb64f1070675" ns1:_="" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025" xsi:nil="true"/>
+    <SharedWithUsers xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="f29c99a9-2f7a-4302-86cb-05f0a42840fb"/>
-    <xsd:import namespace="418539d9-ccaa-4f07-ad3e-d267fe6a0194"/>
+    <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -21290,19 +21324,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -21313,18 +21346,18 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="12" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="14" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="13" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="15" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f29c99a9-2f7a-4302-86cb-05f0a42840fb" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c3438c2-774e-4b56-8e53-485ea73e7025" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -21337,60 +21370,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="17" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="418539d9-ccaa-4f07-ad3e-d267fe6a0194" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -21409,7 +21437,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -21516,40 +21544,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3C097C-2BC0-4CC5-BBF3-4B2896A0E86D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2088D717-2FDD-4A81-AC22-87F230E3EDCB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f29c99a9-2f7a-4302-86cb-05f0a42840fb"/>
-    <ds:schemaRef ds:uri="418539d9-ccaa-4f07-ad3e-d267fe6a0194"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21560,14 +21558,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2088D717-2FDD-4A81-AC22-87F230E3EDCB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A40AB40B-FC76-4318-B0B5-E4A8FF999F8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{DA48B0D8-2591-4174-87E9-ADD41CEDC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BF0A4B-EBEB-4F48-B00F-37A9E99757F5}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{DA48B0D8-2591-4174-87E9-ADD41CEDC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48016DBA-B78F-4B3B-942F-31F8A047C722}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="892" activeTab="15" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="892" activeTab="17" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="1163">
   <si>
     <t>データ項目（法人）</t>
     <rPh sb="3" eb="5">
@@ -6542,37 +6542,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ic:ID</t>
-  </si>
-  <si>
-    <t>ic:主要用途</t>
-  </si>
-  <si>
-    <t>ic:名称</t>
-  </si>
-  <si>
-    <t>ic:通称</t>
-  </si>
-  <si>
-    <t>ic:記述</t>
-  </si>
-  <si>
-    <t>ic:住所</t>
-  </si>
-  <si>
-    <t>ic:面積</t>
-  </si>
-  <si>
-    <t>ic:連絡先</t>
-  </si>
-  <si>
-    <t>ic:主要用途</t>
-    <rPh sb="3" eb="7">
-      <t>シュヨウヨウト</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>gml:name</t>
   </si>
   <si>
@@ -6732,39 +6701,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ic:要約</t>
-  </si>
-  <si>
-    <t>ic:建物</t>
-  </si>
-  <si>
-    <t>ic:設備</t>
-  </si>
-  <si>
-    <t>ic:敷地面積</t>
-  </si>
-  <si>
-    <t>ic:建築面積</t>
-  </si>
-  <si>
-    <t>ic:延べ面積</t>
-  </si>
-  <si>
-    <t>ic:最高の高さ</t>
-  </si>
-  <si>
-    <t>ic:地上階数</t>
-  </si>
-  <si>
-    <t>ic:地下階数</t>
-  </si>
-  <si>
-    <t>ic:構造</t>
-  </si>
-  <si>
-    <t>ic:竣工日</t>
-  </si>
-  <si>
     <t>bldg:buildingIDAttribute</t>
   </si>
   <si>
@@ -6835,12 +6771,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ic:利用可能時間</t>
-  </si>
-  <si>
-    <t>ic:Webサイト</t>
-  </si>
-  <si>
     <t>frn:class</t>
   </si>
   <si>
@@ -7018,6 +6948,364 @@
   </si>
   <si>
     <t>URL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型＞ID</t>
+    <rPh sb="0" eb="3">
+      <t>トチガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞主要用途</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シュヨウヨウト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型&gt;名称&gt;表記</t>
+    <rPh sb="0" eb="2">
+      <t>トチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型&gt;名称&gt;カナ表記</t>
+    <rPh sb="0" eb="2">
+      <t>トチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型&gt;名称&gt;ローマ字表記
+等</t>
+    <rPh sb="0" eb="2">
+      <t>トチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型＞通称</t>
+    <rPh sb="0" eb="2">
+      <t>トチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型＞説明</t>
+    <rPh sb="0" eb="3">
+      <t>トチガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型＞住所</t>
+    <rPh sb="0" eb="3">
+      <t>トチガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型＞面積</t>
+    <rPh sb="0" eb="3">
+      <t>トチガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型＞記述</t>
+    <rPh sb="0" eb="3">
+      <t>トチガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土地型＞連絡先</t>
+    <rPh sb="0" eb="3">
+      <t>トチガタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞ID</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞種別</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型&gt;名称&gt;表記</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型&gt;名称&gt;カナ表記</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型&gt;名称&gt;ローマ字表記
+等</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞通称</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞要約</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウヤク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞記述</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞住所</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞設備</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞敷地面積</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シキチメンセキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞建築面積</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ケンチクメンセキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞延べ面積</t>
+    <rPh sb="0" eb="3">
+      <t>タテモノガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞最高の高さ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞地上階数</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞地下階数</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞構造</t>
+    <rPh sb="4" eb="6">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞竣工日</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物型＞連絡先</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型＞ID</t>
+    <rPh sb="0" eb="3">
+      <t>セツビガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型＞記述</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型＞設置地点＞住所</t>
+    <rPh sb="4" eb="8">
+      <t>セッチチテン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型＞利用可能時間</t>
+    <rPh sb="0" eb="3">
+      <t>セツビガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型＞Webサイト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型＞説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型&gt;名称&gt;表記</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型&gt;名称&gt;カナ表記</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型&gt;名称&gt;ローマ字表記
+等</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備型＞連絡先</t>
+    <rPh sb="0" eb="3">
+      <t>セツビガタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>レンラクサキ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -12195,8 +12483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C561344E-2A31-4406-A230-D26DBFF91A45}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -12233,7 +12521,7 @@
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="97" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
@@ -12292,7 +12580,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12319,12 +12607,12 @@
         <v>1008</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="8" t="s">
-        <v>1019</v>
+        <v>1123</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="92"/>
@@ -12349,10 +12637,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>1128</v>
+        <v>1106</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1127</v>
+        <v>1105</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>718</v>
@@ -12360,11 +12648,11 @@
       <c r="J5" s="91"/>
       <c r="K5" s="11"/>
       <c r="L5" s="8" t="s">
-        <v>1027</v>
+        <v>1124</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="92" t="s">
-        <v>1122</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12396,11 +12684,11 @@
       <c r="J6" s="91"/>
       <c r="K6" s="11"/>
       <c r="L6" s="8" t="s">
-        <v>1021</v>
+        <v>1125</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="92" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12432,14 +12720,14 @@
       <c r="J7" s="91"/>
       <c r="K7" s="11"/>
       <c r="L7" s="8" t="s">
-        <v>1021</v>
+        <v>1126</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="92" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12468,11 +12756,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="11"/>
       <c r="L8" s="8" t="s">
-        <v>1021</v>
+        <v>1127</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="92" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12504,7 +12792,7 @@
       <c r="J9" s="91"/>
       <c r="K9" s="11"/>
       <c r="L9" s="8" t="s">
-        <v>1022</v>
+        <v>1128</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="92"/>
@@ -12538,11 +12826,11 @@
       <c r="J10" s="34"/>
       <c r="K10" s="14"/>
       <c r="L10" s="8" t="s">
-        <v>1023</v>
+        <v>1129</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="92" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12553,7 +12841,7 @@
         <v>545</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>17</v>
@@ -12565,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>1125</v>
+        <v>1103</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>1014</v>
@@ -12576,11 +12864,11 @@
       <c r="J11" s="34"/>
       <c r="K11" s="11"/>
       <c r="L11" s="8" t="s">
-        <v>1024</v>
+        <v>1130</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="92" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12603,10 +12891,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>1126</v>
+        <v>1104</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1111</v>
+        <v>1089</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>1018</v>
@@ -12614,11 +12902,11 @@
       <c r="J12" s="91"/>
       <c r="K12" s="11"/>
       <c r="L12" s="8" t="s">
-        <v>1025</v>
+        <v>1131</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="92" t="s">
-        <v>1123</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -12642,7 +12930,7 @@
         <v>838</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>873</v>
@@ -12684,7 +12972,7 @@
       <c r="J14" s="91"/>
       <c r="K14" s="11"/>
       <c r="L14" s="8" t="s">
-        <v>1023</v>
+        <v>1132</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="92"/>
@@ -12718,7 +13006,7 @@
       <c r="J15" s="91"/>
       <c r="K15" s="14"/>
       <c r="L15" s="8" t="s">
-        <v>1026</v>
+        <v>1133</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="92"/>
@@ -12825,7 +13113,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L6" sqref="L6:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -12862,7 +13150,7 @@
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="97" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
@@ -12921,7 +13209,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12945,7 +13233,7 @@
         <v>547</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>1016</v>
@@ -12953,11 +13241,11 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="8" t="s">
-        <v>1019</v>
+        <v>1134</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="92" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12968,7 +13256,7 @@
         <v>545</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
@@ -12978,17 +13266,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>718</v>
       </c>
       <c r="J5" s="91"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>1135</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="92"/>
     </row>
@@ -13015,7 +13305,7 @@
         <v>730</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>1017</v>
@@ -13023,11 +13313,11 @@
       <c r="J6" s="91"/>
       <c r="K6" s="11"/>
       <c r="L6" s="8" t="s">
-        <v>1021</v>
+        <v>1136</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="92" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13053,7 +13343,7 @@
         <v>735</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>1017</v>
@@ -13061,14 +13351,14 @@
       <c r="J7" s="91"/>
       <c r="K7" s="11"/>
       <c r="L7" s="8" t="s">
-        <v>1021</v>
+        <v>1137</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="92" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13091,7 +13381,7 @@
         <v>740</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>1017</v>
@@ -13099,11 +13389,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="11"/>
       <c r="L8" s="8" t="s">
-        <v>1021</v>
+        <v>1138</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="92" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13127,7 +13417,7 @@
         <v>745</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>1017</v>
@@ -13135,7 +13425,7 @@
       <c r="J9" s="91"/>
       <c r="K9" s="11"/>
       <c r="L9" s="8" t="s">
-        <v>1022</v>
+        <v>1139</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="92"/>
@@ -13161,7 +13451,7 @@
         <v>753</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>1017</v>
@@ -13169,11 +13459,11 @@
       <c r="J10" s="34"/>
       <c r="K10" s="14"/>
       <c r="L10" s="8" t="s">
-        <v>1072</v>
+        <v>1140</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="92" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13199,7 +13489,7 @@
         <v>757</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>1017</v>
@@ -13207,11 +13497,11 @@
       <c r="J11" s="34"/>
       <c r="K11" s="11"/>
       <c r="L11" s="8" t="s">
-        <v>1023</v>
+        <v>1141</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="92" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13222,7 +13512,7 @@
         <v>545</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
@@ -13232,22 +13522,20 @@
         <v>1</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>1129</v>
+        <v>1107</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="J12" s="91"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="8" t="s">
-        <v>1073</v>
-      </c>
+      <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="92" t="s">
-        <v>1124</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13271,7 +13559,7 @@
         <v>766</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>1017</v>
@@ -13290,7 +13578,7 @@
         <v>545</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>17</v>
@@ -13302,7 +13590,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>1014</v>
@@ -13313,11 +13601,11 @@
       <c r="J14" s="91"/>
       <c r="K14" s="11"/>
       <c r="L14" s="8" t="s">
-        <v>1024</v>
+        <v>1142</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="92" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13338,18 +13626,18 @@
         <v>1</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="J15" s="91"/>
       <c r="K15" s="14"/>
       <c r="L15" s="8" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="92"/>
@@ -13372,10 +13660,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>1131</v>
+        <v>1109</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>1018</v>
@@ -13383,11 +13671,11 @@
       <c r="J16" s="91"/>
       <c r="K16" s="11"/>
       <c r="L16" s="8" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="92" t="s">
-        <v>1123</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13398,7 +13686,7 @@
         <v>545</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
@@ -13408,22 +13696,21 @@
         <v>1</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>1132</v>
+        <v>1110</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>1017</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="K17" s="14"/>
-      <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="92" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13434,7 +13721,7 @@
         <v>545</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
@@ -13444,24 +13731,24 @@
         <v>1</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>1128</v>
+        <v>1106</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>1017</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>1114</v>
+        <v>1092</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="8" t="s">
-        <v>1020</v>
+        <v>1124</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="92" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13472,7 +13759,7 @@
         <v>545</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
@@ -13482,10 +13769,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>1133</v>
+        <v>1111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>1018</v>
@@ -13493,7 +13780,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="14"/>
       <c r="L19" s="8" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="92"/>
@@ -13506,7 +13793,7 @@
         <v>545</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7">
@@ -13516,10 +13803,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>1018</v>
@@ -13527,7 +13814,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="14"/>
       <c r="L20" s="8" t="s">
-        <v>1077</v>
+        <v>1146</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="92"/>
@@ -13540,7 +13827,7 @@
         <v>545</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7">
@@ -13550,10 +13837,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>1018</v>
@@ -13561,11 +13848,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="14"/>
       <c r="L21" s="8" t="s">
-        <v>1078</v>
+        <v>1147</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="92" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -13576,7 +13863,7 @@
         <v>545</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7">
@@ -13586,10 +13873,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>1018</v>
@@ -13597,11 +13884,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="14"/>
       <c r="L22" s="8" t="s">
-        <v>1079</v>
+        <v>1148</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="92" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -13612,7 +13899,7 @@
         <v>545</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7">
@@ -13622,10 +13909,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>1018</v>
@@ -13633,11 +13920,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="14"/>
       <c r="L23" s="8" t="s">
-        <v>1080</v>
+        <v>1149</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="92" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13648,7 +13935,7 @@
         <v>545</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7">
@@ -13658,10 +13945,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>718</v>
@@ -13669,7 +13956,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="14"/>
       <c r="L24" s="8" t="s">
-        <v>1081</v>
+        <v>1150</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="92"/>
@@ -13682,7 +13969,7 @@
         <v>545</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7">
@@ -13692,10 +13979,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>632</v>
@@ -13703,11 +13990,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="14"/>
       <c r="L25" s="8" t="s">
-        <v>1082</v>
+        <v>1151</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="92" t="s">
-        <v>1089</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13731,7 +14018,7 @@
         <v>843</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>1017</v>
@@ -13749,7 +14036,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7">
@@ -13770,7 +14057,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="14"/>
       <c r="L27" s="8" t="s">
-        <v>1026</v>
+        <v>1152</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="92"/>
@@ -13783,7 +14070,7 @@
         <v>545</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7">
@@ -13796,7 +14083,7 @@
         <v>425</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>427</v>
@@ -13833,8 +14120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93539E85-99AE-4E80-9A6D-357308F62CD5}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -13871,7 +14158,7 @@
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="97" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
@@ -13930,7 +14217,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13954,7 +14241,7 @@
         <v>547</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1093</v>
+        <v>1073</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>1016</v>
@@ -13962,7 +14249,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="8" t="s">
-        <v>1019</v>
+        <v>1153</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="92"/>
@@ -13975,7 +14262,7 @@
         <v>545</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
@@ -13985,10 +14272,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1094</v>
+        <v>1074</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>718</v>
@@ -13998,7 +14285,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="92" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14009,7 +14296,7 @@
         <v>545</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1091</v>
+        <v>1071</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
@@ -14019,10 +14306,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>718</v>
@@ -14032,7 +14319,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="92" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14058,7 +14345,7 @@
         <v>730</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1096</v>
+        <v>1076</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>1017</v>
@@ -14066,11 +14353,11 @@
       <c r="J7" s="91"/>
       <c r="K7" s="11"/>
       <c r="L7" s="8" t="s">
-        <v>1021</v>
+        <v>1159</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="92" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14096,7 +14383,7 @@
         <v>735</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>1017</v>
@@ -14104,14 +14391,14 @@
       <c r="J8" s="8"/>
       <c r="K8" s="11"/>
       <c r="L8" s="8" t="s">
-        <v>1021</v>
+        <v>1160</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="92" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -14134,7 +14421,7 @@
         <v>740</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>1017</v>
@@ -14142,11 +14429,11 @@
       <c r="J9" s="91"/>
       <c r="K9" s="11"/>
       <c r="L9" s="8" t="s">
-        <v>1021</v>
+        <v>1161</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="92" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14170,7 +14457,7 @@
         <v>757</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>1017</v>
@@ -14178,11 +14465,11 @@
       <c r="J10" s="34"/>
       <c r="K10" s="14"/>
       <c r="L10" s="8" t="s">
-        <v>1023</v>
+        <v>1158</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="92" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14206,7 +14493,7 @@
         <v>766</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1116</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>1017</v>
@@ -14225,7 +14512,7 @@
         <v>545</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1121</v>
+        <v>1099</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -14243,16 +14530,16 @@
         <v>1014</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="J12" s="91"/>
       <c r="K12" s="11"/>
       <c r="L12" s="8" t="s">
-        <v>1024</v>
+        <v>1155</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="92" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14276,7 +14563,7 @@
         <v>782</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>1017</v>
@@ -14284,7 +14571,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="11"/>
       <c r="L13" s="8" t="s">
-        <v>1105</v>
+        <v>1156</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="92"/>
@@ -14310,7 +14597,7 @@
         <v>785</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>687</v>
@@ -14318,7 +14605,7 @@
       <c r="J14" s="91"/>
       <c r="K14" s="11"/>
       <c r="L14" s="8" t="s">
-        <v>1105</v>
+        <v>1156</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="92"/>
@@ -14344,15 +14631,15 @@
         <v>790</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1102</v>
+        <v>1082</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="J15" s="91"/>
       <c r="K15" s="14"/>
       <c r="L15" s="8" t="s">
-        <v>1105</v>
+        <v>1156</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="92"/>
@@ -14378,7 +14665,7 @@
         <v>793</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1103</v>
+        <v>1083</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>1018</v>
@@ -14386,7 +14673,7 @@
       <c r="J16" s="91"/>
       <c r="K16" s="11"/>
       <c r="L16" s="8" t="s">
-        <v>1105</v>
+        <v>1156</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="92"/>
@@ -14399,7 +14686,7 @@
         <v>545</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
@@ -14409,10 +14696,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>1017</v>
@@ -14420,7 +14707,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="14"/>
       <c r="L17" s="8" t="s">
-        <v>1106</v>
+        <v>1157</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="92"/>
@@ -14446,7 +14733,7 @@
         <v>661</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>1017</v>
@@ -14454,7 +14741,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="14"/>
       <c r="L18" s="8" t="s">
-        <v>1023</v>
+        <v>1154</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="92"/>
@@ -14467,7 +14754,7 @@
         <v>545</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
@@ -14488,7 +14775,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="14"/>
       <c r="L19" s="8" t="s">
-        <v>1026</v>
+        <v>1162</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="92"/>
@@ -14763,7 +15050,7 @@
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -18085,7 +18372,7 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -20122,8 +20409,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="L7" sqref="L5:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -20689,7 +20976,7 @@
         <v>779</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1118</v>
+        <v>1096</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>780</v>

--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5352CAB-CFDD-4FCF-85B8-09728369BA04}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172A952D-EDC6-4D9C-BC70-CF80936FAA14}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="892" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="892" activeTab="13" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -61,7 +61,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4403,18 +4402,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>多目的トイレ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>MultipurposeToilet</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>多目的トイレの有無を記載。</t>
-    <rPh sb="0" eb="3">
-      <t>タモクテキ</t>
-    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -5505,6 +5493,14 @@
   </si>
   <si>
     <t>pd:連絡先</t>
+  </si>
+  <si>
+    <t>バリアフリートイレ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>バリアフリートイレの有無を記載。</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -5514,7 +5510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6012,7 +6008,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6313,25 +6309,25 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="39" customWidth="1"/>
     <col min="2" max="2" width="15" style="39" customWidth="1"/>
     <col min="3" max="3" width="40.25" style="39" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="39" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="39" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="21"/>
+    <col min="12" max="12" width="44.58203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78.75">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -6368,7 +6364,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="29" customFormat="1">
+    <row r="2" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -6401,7 +6397,7 @@
       </c>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:13" s="29" customFormat="1">
+    <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -6434,7 +6430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="29" customFormat="1">
+    <row r="4" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -6467,7 +6463,7 @@
       </c>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:13" s="29" customFormat="1">
+    <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -6500,7 +6496,7 @@
       </c>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:13" s="29" customFormat="1">
+    <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -6531,7 +6527,7 @@
       </c>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="7" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -6562,7 +6558,7 @@
       </c>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="8" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -6595,7 +6591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1">
+    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -6626,7 +6622,7 @@
       </c>
       <c r="K9" s="54"/>
     </row>
-    <row r="10" spans="1:13" s="29" customFormat="1">
+    <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="29" customFormat="1">
+    <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="12" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -6723,7 +6719,7 @@
       </c>
       <c r="K12" s="54"/>
     </row>
-    <row r="13" spans="1:13" s="29" customFormat="1">
+    <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -6756,7 +6752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="14" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -6789,7 +6785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="15" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -6820,7 +6816,7 @@
       </c>
       <c r="K15" s="54"/>
     </row>
-    <row r="16" spans="1:13" s="29" customFormat="1">
+    <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -6853,7 +6849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="29" customFormat="1">
+    <row r="17" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -6886,7 +6882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="29" customFormat="1">
+    <row r="18" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -6917,7 +6913,7 @@
       </c>
       <c r="K18" s="54"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -6948,7 +6944,7 @@
       </c>
       <c r="K19" s="54"/>
     </row>
-    <row r="20" spans="1:11" s="29" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:11" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -6981,7 +6977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="29" customFormat="1">
+    <row r="21" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -7012,7 +7008,7 @@
       </c>
       <c r="K21" s="54"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1">
+    <row r="22" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -7045,7 +7041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="29" customFormat="1" ht="19.5" customHeight="1">
+    <row r="23" spans="1:11" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -7078,7 +7074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="29" customFormat="1">
+    <row r="24" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -7111,7 +7107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="29" customFormat="1">
+    <row r="25" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -7144,7 +7140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="26" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -7175,7 +7171,7 @@
       </c>
       <c r="K26" s="54"/>
     </row>
-    <row r="27" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="27" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -7210,7 +7206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="29" customFormat="1">
+    <row r="28" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -7246,23 +7242,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="21" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -7299,7 +7295,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7330,7 +7326,7 @@
       </c>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -7361,7 +7357,7 @@
       </c>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -7392,7 +7388,7 @@
       </c>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -7423,7 +7419,7 @@
       </c>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -7454,7 +7450,7 @@
       </c>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7485,7 +7481,7 @@
       </c>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7516,7 +7512,7 @@
       </c>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -7568,23 +7564,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="25.75" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -7621,7 +7617,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7656,7 +7652,7 @@
       </c>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -7693,7 +7689,7 @@
       </c>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -7728,7 +7724,7 @@
       </c>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -7763,7 +7759,7 @@
       </c>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -7798,7 +7794,7 @@
       </c>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7833,7 +7829,7 @@
       </c>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7870,7 +7866,7 @@
       </c>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -7907,7 +7903,7 @@
       </c>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:13" s="29" customFormat="1">
+    <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -7940,25 +7936,25 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="21" style="14" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.58203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="77.25" customHeight="1">
+    <row r="1" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -7995,7 +7991,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8032,7 +8028,7 @@
       </c>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8069,7 +8065,7 @@
       </c>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8106,7 +8102,7 @@
       </c>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8143,7 +8139,7 @@
       </c>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8180,7 +8176,7 @@
       </c>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8217,7 +8213,7 @@
       </c>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8252,7 +8248,7 @@
       </c>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -8308,24 +8304,24 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="21" style="14" customWidth="1"/>
-    <col min="4" max="5" width="6.625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="5" width="6.58203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78" customHeight="1">
+    <row r="1" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -8362,7 +8358,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8397,7 +8393,7 @@
       </c>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8434,7 +8430,7 @@
       </c>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8471,7 +8467,7 @@
       </c>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8508,7 +8504,7 @@
       </c>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8545,7 +8541,7 @@
       </c>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8580,7 +8576,7 @@
       </c>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8615,7 +8611,7 @@
       </c>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -8652,7 +8648,7 @@
       </c>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="52">
         <v>9</v>
       </c>
@@ -8683,7 +8679,7 @@
       </c>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="52">
         <v>10</v>
       </c>
@@ -8714,7 +8710,7 @@
       </c>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:13" s="29" customFormat="1">
+    <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -8745,25 +8741,27 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="39" customWidth="1"/>
     <col min="2" max="2" width="15" style="39" customWidth="1"/>
     <col min="3" max="3" width="40.25" style="39" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="39" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="39" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="21"/>
+    <col min="12" max="12" width="44.58203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
         <v>128</v>
       </c>
@@ -8800,7 +8798,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="2" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -8831,7 +8829,7 @@
       </c>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:13" s="29" customFormat="1">
+    <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -8862,7 +8860,7 @@
       </c>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:13" s="29" customFormat="1">
+    <row r="4" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -8893,7 +8891,7 @@
       </c>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:13" s="29" customFormat="1">
+    <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -8901,7 +8899,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>770</v>
+        <v>982</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25">
@@ -8911,10 +8909,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>772</v>
+        <v>983</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>27</v>
@@ -8924,7 +8922,7 @@
       </c>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="6" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -8932,7 +8930,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25">
@@ -8942,10 +8940,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>27</v>
@@ -8955,7 +8953,7 @@
       </c>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="7" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25">
@@ -8973,10 +8971,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>27</v>
@@ -8986,7 +8984,7 @@
       </c>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="8" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -8994,7 +8992,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25">
@@ -9004,20 +9002,20 @@
         <v>1</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K8" s="54"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" ht="58.5">
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="58.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -9025,7 +9023,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50">
@@ -9035,10 +9033,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>27</v>
@@ -9048,7 +9046,7 @@
       </c>
       <c r="K9" s="54"/>
     </row>
-    <row r="10" spans="1:13" s="29" customFormat="1">
+    <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -9056,7 +9054,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25">
@@ -9066,20 +9064,20 @@
         <v>1</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K10" s="54"/>
     </row>
-    <row r="11" spans="1:13" s="29" customFormat="1">
+    <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -9087,7 +9085,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25">
@@ -9097,10 +9095,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>27</v>
@@ -9110,7 +9108,7 @@
       </c>
       <c r="K11" s="54"/>
     </row>
-    <row r="12" spans="1:13" s="29" customFormat="1">
+    <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -9118,7 +9116,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25">
@@ -9128,10 +9126,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>27</v>
@@ -9141,7 +9139,7 @@
       </c>
       <c r="K12" s="54"/>
     </row>
-    <row r="13" spans="1:13" s="29" customFormat="1">
+    <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -9149,7 +9147,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25">
@@ -9159,10 +9157,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>27</v>
@@ -9172,7 +9170,7 @@
       </c>
       <c r="K13" s="54"/>
     </row>
-    <row r="14" spans="1:13" s="29" customFormat="1">
+    <row r="14" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -9180,7 +9178,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25">
@@ -9190,20 +9188,20 @@
         <v>1</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K14" s="54"/>
     </row>
-    <row r="15" spans="1:13" s="29" customFormat="1">
+    <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -9236,23 +9234,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -9289,7 +9287,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9297,7 +9295,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -9307,10 +9305,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>477</v>
@@ -9320,7 +9318,7 @@
       </c>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9328,7 +9326,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -9338,20 +9336,20 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>418</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9359,7 +9357,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -9369,20 +9367,20 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>477</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9390,7 +9388,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -9400,10 +9398,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>545</v>
@@ -9413,7 +9411,7 @@
       </c>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -9421,7 +9419,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -9431,20 +9429,20 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>477</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9452,7 +9450,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -9462,10 +9460,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>545</v>
@@ -9475,7 +9473,7 @@
       </c>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9483,7 +9481,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -9493,20 +9491,20 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>217</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9514,7 +9512,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -9524,20 +9522,20 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>217</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9545,7 +9543,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -9555,10 +9553,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>477</v>
@@ -9568,7 +9566,7 @@
       </c>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -9576,7 +9574,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -9586,10 +9584,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>477</v>
@@ -9599,7 +9597,7 @@
       </c>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -9607,7 +9605,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -9617,10 +9615,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>477</v>
@@ -9630,7 +9628,7 @@
       </c>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -9638,7 +9636,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -9648,10 +9646,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>477</v>
@@ -9661,7 +9659,7 @@
       </c>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -9669,7 +9667,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -9679,10 +9677,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>477</v>
@@ -9692,7 +9690,7 @@
       </c>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -9700,7 +9698,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -9713,7 +9711,7 @@
         <v>713</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>477</v>
@@ -9739,23 +9737,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="41.875" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="41.83203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -9792,7 +9790,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9800,7 +9798,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -9813,19 +9811,19 @@
         <v>466</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>845</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>847</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9833,7 +9831,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -9845,22 +9843,22 @@
         <v>465</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>615</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9868,7 +9866,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -9881,19 +9879,19 @@
         <v>625</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>477</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9901,7 +9899,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -9914,19 +9912,19 @@
         <v>629</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>477</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -9934,7 +9932,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -9947,19 +9945,19 @@
         <v>633</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>477</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9967,7 +9965,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -9980,19 +9978,19 @@
         <v>636</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>477</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -10000,7 +9998,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -10013,19 +10011,19 @@
         <v>645</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>477</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K8" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -10033,7 +10031,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -10045,10 +10043,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>587</v>
@@ -10058,7 +10056,7 @@
       </c>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -10066,7 +10064,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -10076,13 +10074,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
+        <v>869</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>871</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>873</v>
       </c>
       <c r="J10" s="10">
         <v>10000</v>
@@ -10091,7 +10089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -10099,7 +10097,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -10112,7 +10110,7 @@
         <v>709</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>739</v>
@@ -10122,7 +10120,7 @@
       </c>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -10130,7 +10128,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -10143,17 +10141,17 @@
         <v>713</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>477</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -10161,7 +10159,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -10174,7 +10172,7 @@
         <v>124</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>357</v>
@@ -10204,23 +10202,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="28.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="28.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -10257,7 +10255,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -10278,19 +10276,19 @@
         <v>597</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>880</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>882</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -10298,7 +10296,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -10308,22 +10306,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>615</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -10346,19 +10344,19 @@
         <v>625</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>887</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>889</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -10381,19 +10379,19 @@
         <v>629</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -10416,19 +10414,19 @@
         <v>633</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -10449,19 +10447,19 @@
         <v>636</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -10482,19 +10480,19 @@
         <v>642</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -10517,19 +10515,19 @@
         <v>645</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K9" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -10537,7 +10535,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -10547,20 +10545,20 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
+        <v>899</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="10" t="s">
         <v>902</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>904</v>
-      </c>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -10581,25 +10579,25 @@
         <v>654</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="K11" s="56"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>905</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>906</v>
-      </c>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>907</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
@@ -10611,10 +10609,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>587</v>
@@ -10624,7 +10622,7 @@
       </c>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -10645,17 +10643,17 @@
         <v>665</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>667</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -10663,7 +10661,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -10673,20 +10671,20 @@
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
+        <v>869</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>871</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>873</v>
       </c>
       <c r="J14" s="10">
         <v>100</v>
       </c>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -10694,7 +10692,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -10704,20 +10702,20 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
+        <v>912</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>916</v>
-      </c>
       <c r="K15" s="56"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -10725,7 +10723,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
@@ -10735,22 +10733,22 @@
         <v>465</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>615</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="9" customFormat="1">
+    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -10758,7 +10756,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -10768,13 +10766,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J17" s="51">
         <v>100</v>
@@ -10783,7 +10781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="9" customFormat="1">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -10791,7 +10789,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
@@ -10801,13 +10799,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="63" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J18" s="51">
         <v>300</v>
@@ -10816,7 +10814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="9" customFormat="1">
+    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -10824,7 +10822,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
@@ -10834,13 +10832,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J19" s="51">
         <v>12</v>
@@ -10849,7 +10847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -10857,7 +10855,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -10867,13 +10865,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J20" s="51">
         <v>3</v>
@@ -10882,7 +10880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -10890,7 +10888,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -10900,13 +10898,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J21" s="51">
         <v>1</v>
@@ -10915,7 +10913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="22" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -10923,7 +10921,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -10933,22 +10931,22 @@
         <v>1</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>615</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="K22" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="9" customFormat="1">
+    <row r="23" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -10956,7 +10954,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
@@ -10966,22 +10964,22 @@
         <v>1</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>537</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K23" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="9" customFormat="1">
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -11002,17 +11000,17 @@
         <v>713</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="K24" s="56"/>
     </row>
-    <row r="25" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="25" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -11020,7 +11018,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
@@ -11033,7 +11031,7 @@
         <v>124</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>357</v>
@@ -11045,7 +11043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="26" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -11053,7 +11051,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
@@ -11066,7 +11064,7 @@
         <v>360</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>362</v>
@@ -11076,7 +11074,7 @@
       </c>
       <c r="K26" s="56"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" s="41"/>
       <c r="H27" s="37"/>
       <c r="K27" s="1"/>
@@ -11101,23 +11099,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="28.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="28.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -11154,7 +11152,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -11175,19 +11173,19 @@
         <v>597</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -11195,7 +11193,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -11205,20 +11203,20 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>615</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -11226,7 +11224,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -11236,20 +11234,20 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>615</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -11272,19 +11270,19 @@
         <v>625</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -11307,19 +11305,19 @@
         <v>629</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -11342,19 +11340,19 @@
         <v>633</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -11375,19 +11373,19 @@
         <v>645</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -11408,17 +11406,17 @@
         <v>654</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -11426,7 +11424,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -11438,10 +11436,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>587</v>
@@ -11451,7 +11449,7 @@
       </c>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -11472,17 +11470,17 @@
         <v>670</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -11503,17 +11501,17 @@
         <v>673</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>217</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -11534,7 +11532,7 @@
         <v>675</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>217</v>
@@ -11544,7 +11542,7 @@
       </c>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -11565,17 +11563,17 @@
         <v>677</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -11583,7 +11581,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -11593,20 +11591,20 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>739</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="K15" s="56"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="58.5">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="58.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -11624,20 +11622,20 @@
         <v>1</v>
       </c>
       <c r="G16" s="63" t="s">
+        <v>978</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>981</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>982</v>
-      </c>
       <c r="K16" s="56"/>
     </row>
-    <row r="17" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="17" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -11645,7 +11643,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -11658,10 +11656,10 @@
         <v>124</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>358</v>
@@ -11670,7 +11668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="41"/>
       <c r="H18" s="37"/>
       <c r="K18" s="1"/>
@@ -11698,23 +11696,23 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="39" customWidth="1"/>
     <col min="2" max="2" width="15" style="39" customWidth="1"/>
     <col min="3" max="3" width="40.25" style="39" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="39" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="39" customWidth="1"/>
     <col min="11" max="11" width="23.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="21"/>
+    <col min="12" max="12" width="44.58203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
         <v>128</v>
       </c>
@@ -11751,7 +11749,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="29" customFormat="1">
+    <row r="2" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -11782,7 +11780,7 @@
       </c>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:13" s="42" customFormat="1">
+    <row r="3" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -11813,7 +11811,7 @@
       </c>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:13" s="42" customFormat="1" ht="39">
+    <row r="4" spans="1:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -11844,7 +11842,7 @@
       </c>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:13" s="29" customFormat="1">
+    <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -11872,23 +11870,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="39" customWidth="1"/>
     <col min="2" max="2" width="15" style="39" customWidth="1"/>
     <col min="3" max="3" width="40.25" style="39" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="39" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="39" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="21"/>
+    <col min="12" max="12" width="44.58203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
         <v>128</v>
       </c>
@@ -11925,7 +11923,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="29" customFormat="1">
+    <row r="2" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -11958,7 +11956,7 @@
       </c>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:13" s="29" customFormat="1">
+    <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -11989,7 +11987,7 @@
       </c>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:13" s="29" customFormat="1">
+    <row r="4" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -12020,7 +12018,7 @@
       </c>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:13" s="29" customFormat="1">
+    <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -12051,7 +12049,7 @@
       </c>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:13" s="29" customFormat="1">
+    <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -12084,7 +12082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="29" customFormat="1">
+    <row r="7" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -12115,7 +12113,7 @@
       </c>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1">
+    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -12150,7 +12148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -12185,7 +12183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="29" customFormat="1">
+    <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -12218,7 +12216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="29" customFormat="1">
+    <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -12251,7 +12249,7 @@
       </c>
       <c r="K11" s="54"/>
     </row>
-    <row r="12" spans="1:13" s="29" customFormat="1">
+    <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -12284,7 +12282,7 @@
       </c>
       <c r="K12" s="54"/>
     </row>
-    <row r="13" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="13" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -12315,7 +12313,7 @@
       </c>
       <c r="K13" s="54"/>
     </row>
-    <row r="14" spans="1:13" s="29" customFormat="1">
+    <row r="14" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -12348,7 +12346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="29" customFormat="1">
+    <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -12381,7 +12379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="29" customFormat="1">
+    <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -12412,7 +12410,7 @@
       </c>
       <c r="K16" s="54"/>
     </row>
-    <row r="17" spans="1:12" s="29" customFormat="1">
+    <row r="17" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -12443,7 +12441,7 @@
       </c>
       <c r="K17" s="54"/>
     </row>
-    <row r="18" spans="1:12" s="29" customFormat="1">
+    <row r="18" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -12474,7 +12472,7 @@
       </c>
       <c r="K18" s="54"/>
     </row>
-    <row r="19" spans="1:12" s="29" customFormat="1">
+    <row r="19" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -12507,7 +12505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="29" customFormat="1">
+    <row r="20" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -12540,7 +12538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="29" customFormat="1">
+    <row r="21" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -12573,7 +12571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="29" customFormat="1">
+    <row r="22" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -12606,7 +12604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="29" customFormat="1">
+    <row r="23" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -12637,7 +12635,7 @@
       </c>
       <c r="K23" s="54"/>
     </row>
-    <row r="24" spans="1:12" s="29" customFormat="1">
+    <row r="24" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -12668,7 +12666,7 @@
       </c>
       <c r="K24" s="54"/>
     </row>
-    <row r="25" spans="1:12" s="29" customFormat="1">
+    <row r="25" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -12703,7 +12701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="29" customFormat="1">
+    <row r="26" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -12736,7 +12734,7 @@
       </c>
       <c r="K26" s="54"/>
     </row>
-    <row r="27" spans="1:12" s="29" customFormat="1">
+    <row r="27" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -12769,7 +12767,7 @@
       </c>
       <c r="K27" s="54"/>
     </row>
-    <row r="28" spans="1:12" s="42" customFormat="1">
+    <row r="28" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -12803,7 +12801,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="29"/>
     </row>
-    <row r="29" spans="1:12" s="42" customFormat="1">
+    <row r="29" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -12839,7 +12837,7 @@
       </c>
       <c r="L29" s="29"/>
     </row>
-    <row r="30" spans="1:12" s="29" customFormat="1">
+    <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -12874,7 +12872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="29" customFormat="1">
+    <row r="31" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -12907,7 +12905,7 @@
       </c>
       <c r="K31" s="54"/>
     </row>
-    <row r="32" spans="1:12" s="29" customFormat="1" ht="39">
+    <row r="32" spans="1:12" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -12938,7 +12936,7 @@
       </c>
       <c r="K32" s="54"/>
     </row>
-    <row r="33" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="33" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -12969,7 +12967,7 @@
       </c>
       <c r="K33" s="54"/>
     </row>
-    <row r="34" spans="1:11" s="29" customFormat="1">
+    <row r="34" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -13002,7 +13000,7 @@
       </c>
       <c r="K34" s="54"/>
     </row>
-    <row r="35" spans="1:11" s="29" customFormat="1">
+    <row r="35" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="24">
         <v>34</v>
       </c>
@@ -13033,7 +13031,7 @@
       </c>
       <c r="K35" s="54"/>
     </row>
-    <row r="36" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="36" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -13066,7 +13064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="29" customFormat="1">
+    <row r="37" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="24">
         <v>36</v>
       </c>
@@ -13101,7 +13099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="29" customFormat="1">
+    <row r="38" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="24">
         <v>37</v>
       </c>
@@ -13132,7 +13130,7 @@
       </c>
       <c r="K38" s="54"/>
     </row>
-    <row r="39" spans="1:11" s="29" customFormat="1">
+    <row r="39" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="24">
         <v>38</v>
       </c>
@@ -13165,7 +13163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="29" customFormat="1">
+    <row r="40" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="24">
         <v>39</v>
       </c>
@@ -13196,7 +13194,7 @@
       </c>
       <c r="K40" s="54"/>
     </row>
-    <row r="41" spans="1:11" s="29" customFormat="1">
+    <row r="41" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="24">
         <v>40</v>
       </c>
@@ -13229,7 +13227,7 @@
       </c>
       <c r="K41" s="54"/>
     </row>
-    <row r="42" spans="1:11" s="29" customFormat="1">
+    <row r="42" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -13262,7 +13260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="43" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="24">
         <v>42</v>
       </c>
@@ -13293,7 +13291,7 @@
       </c>
       <c r="K43" s="54"/>
     </row>
-    <row r="44" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="44" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="24">
         <v>43</v>
       </c>
@@ -13324,7 +13322,7 @@
       </c>
       <c r="K44" s="54"/>
     </row>
-    <row r="45" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="45" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="24">
         <v>44</v>
       </c>
@@ -13355,7 +13353,7 @@
       </c>
       <c r="K45" s="54"/>
     </row>
-    <row r="46" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="46" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="24">
         <v>45</v>
       </c>
@@ -13386,7 +13384,7 @@
       </c>
       <c r="K46" s="54"/>
     </row>
-    <row r="47" spans="1:11" s="29" customFormat="1">
+    <row r="47" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="24">
         <v>46</v>
       </c>
@@ -13417,7 +13415,7 @@
       </c>
       <c r="K47" s="54"/>
     </row>
-    <row r="48" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="48" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="24">
         <v>47</v>
       </c>
@@ -13448,7 +13446,7 @@
       </c>
       <c r="K48" s="54"/>
     </row>
-    <row r="49" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="49" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="24">
         <v>48</v>
       </c>
@@ -13479,7 +13477,7 @@
       </c>
       <c r="K49" s="54"/>
     </row>
-    <row r="50" spans="1:11" s="29" customFormat="1">
+    <row r="50" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="24">
         <v>49</v>
       </c>
@@ -13510,7 +13508,7 @@
       </c>
       <c r="K50" s="54"/>
     </row>
-    <row r="51" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="51" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="24">
         <v>50</v>
       </c>
@@ -13541,7 +13539,7 @@
       </c>
       <c r="K51" s="54"/>
     </row>
-    <row r="52" spans="1:11" s="29" customFormat="1">
+    <row r="52" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="24">
         <v>51</v>
       </c>
@@ -13572,7 +13570,7 @@
       </c>
       <c r="K52" s="54"/>
     </row>
-    <row r="53" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="53" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="24">
         <v>52</v>
       </c>
@@ -13605,7 +13603,7 @@
       </c>
       <c r="K53" s="54"/>
     </row>
-    <row r="54" spans="1:11" s="29" customFormat="1">
+    <row r="54" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="24">
         <v>53</v>
       </c>
@@ -13636,7 +13634,7 @@
       </c>
       <c r="K54" s="54"/>
     </row>
-    <row r="55" spans="1:11" s="29" customFormat="1">
+    <row r="55" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -13667,7 +13665,7 @@
       </c>
       <c r="K55" s="54"/>
     </row>
-    <row r="56" spans="1:11" s="29" customFormat="1">
+    <row r="56" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="24">
         <v>55</v>
       </c>
@@ -13698,7 +13696,7 @@
       </c>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="57" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -13729,7 +13727,7 @@
       </c>
       <c r="K57" s="54"/>
     </row>
-    <row r="58" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="58" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="24">
         <v>57</v>
       </c>
@@ -13764,7 +13762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="59" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="24">
         <v>58</v>
       </c>
@@ -13795,7 +13793,7 @@
       </c>
       <c r="K59" s="54"/>
     </row>
-    <row r="60" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="60" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="24">
         <v>59</v>
       </c>
@@ -13826,7 +13824,7 @@
       </c>
       <c r="K60" s="54"/>
     </row>
-    <row r="61" spans="1:11" s="29" customFormat="1">
+    <row r="61" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="37"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
@@ -13867,23 +13865,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="39" customWidth="1"/>
     <col min="2" max="2" width="15" style="39" customWidth="1"/>
     <col min="3" max="3" width="40.25" style="39" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="39" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="39" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="21"/>
+    <col min="12" max="12" width="44.58203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
         <v>128</v>
       </c>
@@ -13920,7 +13918,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="2" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -13953,7 +13951,7 @@
       </c>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:13" s="29" customFormat="1">
+    <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -13986,7 +13984,7 @@
       </c>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:13" s="29" customFormat="1">
+    <row r="4" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -14021,7 +14019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="29" customFormat="1">
+    <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -14056,7 +14054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="29" customFormat="1">
+    <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -14089,7 +14087,7 @@
       </c>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="1:13" s="29" customFormat="1">
+    <row r="7" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -14122,7 +14120,7 @@
       </c>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1">
+    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -14155,7 +14153,7 @@
       </c>
       <c r="K8" s="54"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -14186,7 +14184,7 @@
       </c>
       <c r="K9" s="54"/>
     </row>
-    <row r="10" spans="1:13" s="29" customFormat="1">
+    <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -14217,7 +14215,7 @@
       </c>
       <c r="K10" s="54"/>
     </row>
-    <row r="11" spans="1:13" s="29" customFormat="1">
+    <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -14248,7 +14246,7 @@
       </c>
       <c r="K11" s="54"/>
     </row>
-    <row r="12" spans="1:13" s="29" customFormat="1" ht="39">
+    <row r="12" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -14279,7 +14277,7 @@
       </c>
       <c r="K12" s="54"/>
     </row>
-    <row r="13" spans="1:13" s="29" customFormat="1">
+    <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -14310,7 +14308,7 @@
       </c>
       <c r="K13" s="54"/>
     </row>
-    <row r="14" spans="1:13" s="29" customFormat="1">
+    <row r="14" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -14343,7 +14341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="29" customFormat="1">
+    <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -14374,7 +14372,7 @@
       </c>
       <c r="K15" s="54"/>
     </row>
-    <row r="16" spans="1:13" s="29" customFormat="1">
+    <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -14407,7 +14405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="29" customFormat="1">
+    <row r="17" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -14440,7 +14438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="29" customFormat="1">
+    <row r="18" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -14471,7 +14469,7 @@
       </c>
       <c r="K18" s="54"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -14502,7 +14500,7 @@
       </c>
       <c r="K19" s="54"/>
     </row>
-    <row r="20" spans="1:11" s="29" customFormat="1" ht="39">
+    <row r="20" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -14533,7 +14531,7 @@
       </c>
       <c r="K20" s="54"/>
     </row>
-    <row r="21" spans="1:11" s="29" customFormat="1">
+    <row r="21" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -14564,7 +14562,7 @@
       </c>
       <c r="K21" s="54"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1">
+    <row r="22" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -14595,7 +14593,7 @@
       </c>
       <c r="K22" s="54"/>
     </row>
-    <row r="23" spans="1:11" s="29" customFormat="1">
+    <row r="23" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -14626,7 +14624,7 @@
       </c>
       <c r="K23" s="54"/>
     </row>
-    <row r="24" spans="1:11" s="29" customFormat="1">
+    <row r="24" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -14657,7 +14655,7 @@
       </c>
       <c r="K24" s="54"/>
     </row>
-    <row r="25" spans="1:11" s="29" customFormat="1">
+    <row r="25" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -14688,7 +14686,7 @@
       </c>
       <c r="K25" s="54"/>
     </row>
-    <row r="26" spans="1:11" s="29" customFormat="1">
+    <row r="26" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -14719,7 +14717,7 @@
       </c>
       <c r="K26" s="54"/>
     </row>
-    <row r="27" spans="1:11" s="29" customFormat="1">
+    <row r="27" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -14755,23 +14753,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="21" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
     <col min="9" max="9" width="30.25" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47.25" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -14808,7 +14806,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -14844,7 +14842,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -14880,7 +14878,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -14916,7 +14914,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -14952,7 +14950,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -14988,7 +14986,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -15020,7 +15018,7 @@
       <c r="K7" s="56"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -15052,7 +15050,7 @@
       <c r="K8" s="56"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -15086,7 +15084,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -15152,7 +15150,7 @@
       <c r="K11" s="56"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -15186,7 +15184,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -15220,7 +15218,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -15252,7 +15250,7 @@
       <c r="K14" s="56"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -15284,7 +15282,7 @@
       <c r="K15" s="56"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1">
+    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -15316,7 +15314,7 @@
       <c r="K16" s="56"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" s="9" customFormat="1">
+    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -15348,7 +15346,7 @@
       <c r="K17" s="56"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" s="9" customFormat="1">
+    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -15382,7 +15380,7 @@
       <c r="K18" s="56"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1">
+    <row r="19" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -15414,7 +15412,7 @@
       <c r="K19" s="56"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" s="9" customFormat="1">
+    <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -15446,7 +15444,7 @@
       <c r="K20" s="56"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" s="9" customFormat="1">
+    <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -15478,7 +15476,7 @@
       <c r="K21" s="56"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" s="9" customFormat="1">
+    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -15510,7 +15508,7 @@
       <c r="K22" s="56"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" s="9" customFormat="1">
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -15542,7 +15540,7 @@
       <c r="K23" s="56"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="39">
+    <row r="24" spans="1:12" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15573,7 +15571,7 @@
       </c>
       <c r="K24" s="56"/>
     </row>
-    <row r="25" spans="1:12" s="9" customFormat="1" ht="39">
+    <row r="25" spans="1:12" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -15604,7 +15602,7 @@
       </c>
       <c r="K25" s="56"/>
     </row>
-    <row r="26" spans="1:12" s="9" customFormat="1">
+    <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -15635,7 +15633,7 @@
       </c>
       <c r="K26" s="56"/>
     </row>
-    <row r="27" spans="1:12" s="13" customFormat="1">
+    <row r="27" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -15666,7 +15664,7 @@
       </c>
       <c r="K27" s="57"/>
     </row>
-    <row r="28" spans="1:12" s="13" customFormat="1">
+    <row r="28" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -15697,7 +15695,7 @@
       </c>
       <c r="K28" s="57"/>
     </row>
-    <row r="29" spans="1:12" s="9" customFormat="1">
+    <row r="29" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -15728,7 +15726,7 @@
       </c>
       <c r="K29" s="56"/>
     </row>
-    <row r="30" spans="1:12" s="9" customFormat="1">
+    <row r="30" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -15759,7 +15757,7 @@
       </c>
       <c r="K30" s="56"/>
     </row>
-    <row r="31" spans="1:12" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="31" spans="1:12" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -15790,7 +15788,7 @@
       </c>
       <c r="K31" s="56"/>
     </row>
-    <row r="32" spans="1:12" s="9" customFormat="1">
+    <row r="32" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -15821,7 +15819,7 @@
       </c>
       <c r="K32" s="56"/>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1">
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -15854,7 +15852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" ht="39">
+    <row r="34" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -15885,7 +15883,7 @@
       </c>
       <c r="K34" s="56"/>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" ht="39">
+    <row r="35" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -15944,23 +15942,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -15997,7 +15995,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -16032,7 +16030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -16086,23 +16084,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -16139,7 +16137,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -16174,7 +16172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -16228,23 +16226,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -16281,7 +16279,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -16314,7 +16312,7 @@
       </c>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -16347,22 +16345,22 @@
       </c>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:13" ht="17.45" customHeight="1">
+    <row r="4" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17.45" customHeight="1">
+    <row r="5" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="17.45" customHeight="1">
+    <row r="6" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="17.45" customHeight="1">
+    <row r="7" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -16388,23 +16386,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="21" style="14" customWidth="1"/>
-    <col min="4" max="6" width="4.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="80.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="14" customWidth="1"/>
+    <col min="4" max="6" width="4.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="52.58203125" style="14" customWidth="1"/>
     <col min="11" max="11" width="26.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.125" style="1"/>
+    <col min="12" max="12" width="44.58203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.58203125" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
+    <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -16441,7 +16439,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -16476,7 +16474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -16511,7 +16509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -16546,7 +16544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -16581,7 +16579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -16614,7 +16612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -16649,7 +16647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -16684,7 +16682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -16719,7 +16717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -16752,7 +16750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -16783,7 +16781,7 @@
       </c>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -16814,7 +16812,7 @@
       </c>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -16847,7 +16845,7 @@
       </c>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" ht="39">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -16878,7 +16876,7 @@
       </c>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -16911,7 +16909,7 @@
       </c>
       <c r="K15" s="56"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1">
+    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -16944,7 +16942,7 @@
       </c>
       <c r="K16" s="56"/>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -16977,7 +16975,7 @@
       </c>
       <c r="K17" s="56"/>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" ht="39">
+    <row r="18" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -17008,7 +17006,7 @@
       </c>
       <c r="K18" s="56"/>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -17041,7 +17039,7 @@
       </c>
       <c r="K19" s="56"/>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -17074,7 +17072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="39">
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -17105,7 +17103,7 @@
       </c>
       <c r="K21" s="56"/>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -17136,7 +17134,7 @@
       </c>
       <c r="K22" s="56"/>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -17169,7 +17167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1">
+    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -17200,7 +17198,7 @@
       </c>
       <c r="K24" s="56"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1">
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -17231,7 +17229,7 @@
       </c>
       <c r="K25" s="56"/>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -17262,7 +17260,7 @@
       </c>
       <c r="K26" s="56"/>
     </row>
-    <row r="27" spans="1:11" s="13" customFormat="1">
+    <row r="27" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17295,7 +17293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="13" customFormat="1">
+    <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -17328,7 +17326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -17359,7 +17357,7 @@
       </c>
       <c r="K29" s="57"/>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="39">
+    <row r="30" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -17390,7 +17388,7 @@
       </c>
       <c r="K30" s="56"/>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1">
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -17421,7 +17419,7 @@
       </c>
       <c r="K31" s="56"/>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="39">
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -17456,7 +17454,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="39">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -17487,7 +17485,7 @@
       </c>
       <c r="K33" s="56"/>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" ht="39">
+    <row r="34" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -17518,7 +17516,7 @@
       </c>
       <c r="K34" s="56"/>
     </row>
-    <row r="35" spans="1:11" s="29" customFormat="1">
+    <row r="35" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -17546,6 +17544,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17779,32 +17795,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7453A944-FC7A-49FA-BC36-5657A0E3AFC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7453A944-FC7A-49FA-BC36-5657A0E3AFC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -17548,6 +17548,10 @@
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -17562,8 +17566,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
     <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
@@ -17587,6 +17591,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -17665,6 +17671,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17694,6 +17707,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{88513228-1833-43bb-9239-8ece679cdd95}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a753eb55-ace7-47fe-8293-79a8dad7846a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -17814,21 +17838,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7453A944-FC7A-49FA-BC36-5657A0E3AFC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5D14FC-D314-4D2E-817A-A6C151AA55A3}"/>
 </file>
--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172A952D-EDC6-4D9C-BC70-CF80936FAA14}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B8EF2B-7AAD-498E-A054-DAAA6427B21F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="892" activeTab="13" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="24768" yWindow="408" windowWidth="26196" windowHeight="16164" tabRatio="892" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>DA</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>通称</t>
   </si>
   <si>
@@ -5500,6 +5496,10 @@
   </si>
   <si>
     <t>バリアフリートイレの有無を記載。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ジーアイエフ</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -6309,7 +6309,7 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6618,7 +6618,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K9" s="54"/>
     </row>
@@ -6630,7 +6630,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25">
@@ -6640,19 +6640,19 @@
         <v>1</v>
       </c>
       <c r="G10" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="28" t="s">
+        <v>983</v>
+      </c>
+      <c r="K10" s="54" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6663,7 +6663,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25">
@@ -6673,16 +6673,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>58</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="54" t="s">
         <v>23</v>
@@ -6696,7 +6696,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25">
@@ -6706,16 +6706,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>62</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="54"/>
     </row>
@@ -6727,7 +6727,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25">
@@ -6737,19 +6737,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="I13" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="J13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>68</v>
-      </c>
       <c r="K13" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -6760,7 +6760,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25">
@@ -6770,16 +6770,16 @@
         <v>18</v>
       </c>
       <c r="G14" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="54" t="s">
         <v>23</v>
@@ -6793,7 +6793,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25">
@@ -6803,10 +6803,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>16</v>
@@ -6824,7 +6824,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25">
@@ -6834,10 +6834,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>16</v>
@@ -6846,7 +6846,7 @@
         <v>1500</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6857,7 +6857,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25">
@@ -6867,16 +6867,16 @@
         <v>18</v>
       </c>
       <c r="G17" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>81</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="54" t="s">
         <v>23</v>
@@ -6890,7 +6890,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25">
@@ -6900,16 +6900,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="I18" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="J18" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="K18" s="54"/>
     </row>
@@ -6921,7 +6921,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25">
@@ -6931,16 +6931,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>90</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="54"/>
     </row>
@@ -6952,7 +6952,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25">
@@ -6962,16 +6962,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="I20" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="J20" s="53" t="s">
         <v>95</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>96</v>
       </c>
       <c r="K20" s="54" t="s">
         <v>23</v>
@@ -6985,7 +6985,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25">
@@ -6995,16 +6995,16 @@
         <v>1</v>
       </c>
       <c r="G21" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="I21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="54"/>
     </row>
@@ -7016,7 +7016,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25">
@@ -7026,16 +7026,16 @@
         <v>18</v>
       </c>
       <c r="G22" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="I22" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" s="54" t="s">
         <v>23</v>
@@ -7049,7 +7049,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25">
@@ -7059,16 +7059,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="I23" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="J23" s="53" t="s">
         <v>108</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>109</v>
       </c>
       <c r="K23" s="54" t="s">
         <v>23</v>
@@ -7082,7 +7082,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25">
@@ -7092,10 +7092,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="I24" s="27" t="s">
         <v>16</v>
@@ -7115,7 +7115,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25">
@@ -7125,16 +7125,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="I25" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="J25" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="K25" s="54" t="s">
         <v>23</v>
@@ -7148,7 +7148,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35">
@@ -7158,16 +7158,16 @@
         <v>18</v>
       </c>
       <c r="G26" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="I26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="J26" s="28" t="s">
         <v>121</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>122</v>
       </c>
       <c r="K26" s="54"/>
     </row>
@@ -7179,7 +7179,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>13</v>
@@ -7191,19 +7191,19 @@
         <v>1</v>
       </c>
       <c r="G27" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="I27" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>127</v>
-      </c>
       <c r="K27" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -7260,7 +7260,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -7313,16 +7313,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
+        <v>721</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>722</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>723</v>
       </c>
       <c r="K2" s="56"/>
     </row>
@@ -7334,26 +7334,26 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G3" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>727</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>728</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -7365,7 +7365,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -7375,13 +7375,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
+        <v>729</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>731</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J4" s="10">
         <v>1234</v>
@@ -7396,7 +7396,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -7406,16 +7406,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
+        <v>732</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="K5" s="56"/>
     </row>
@@ -7427,7 +7427,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -7437,16 +7437,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
+        <v>736</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="10" t="s">
         <v>739</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>740</v>
       </c>
       <c r="K6" s="56"/>
     </row>
@@ -7458,7 +7458,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -7468,16 +7468,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
+        <v>741</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>743</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>744</v>
       </c>
       <c r="K7" s="56"/>
     </row>
@@ -7489,7 +7489,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -7499,13 +7499,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J8" s="51">
         <v>1234567</v>
@@ -7520,7 +7520,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -7530,16 +7530,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="56"/>
     </row>
@@ -7582,7 +7582,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -7660,16 +7660,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G3" s="63" t="str">
         <f>連絡先!G3</f>
@@ -7697,7 +7697,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -7732,7 +7732,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -7767,7 +7767,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -7802,7 +7802,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -7837,10 +7837,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -7874,10 +7874,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -7956,7 +7956,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7999,10 +7999,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -8036,16 +8036,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>750</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G3" s="63" t="str">
         <f>連絡先!G3</f>
@@ -8073,13 +8073,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -8110,13 +8110,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -8147,13 +8147,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -8184,13 +8184,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -8221,7 +8221,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -8256,7 +8256,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -8309,7 +8309,8 @@
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="21" style="14" customWidth="1"/>
-    <col min="4" max="5" width="6.58203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7.58203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="15" customWidth="1"/>
     <col min="6" max="6" width="4.58203125" style="15" customWidth="1"/>
     <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="80.58203125" style="14" customWidth="1"/>
@@ -8323,7 +8324,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -8366,7 +8367,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -8401,16 +8402,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>750</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G3" s="65" t="str">
         <f>連絡先!G3</f>
@@ -8438,13 +8439,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -8475,13 +8476,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -8512,13 +8513,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -8549,7 +8550,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="5">
@@ -8584,7 +8585,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="5">
@@ -8619,13 +8620,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -8656,7 +8657,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18">
@@ -8666,16 +8667,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
+        <v>751</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>754</v>
       </c>
       <c r="K10" s="56"/>
     </row>
@@ -8687,7 +8688,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18">
@@ -8697,16 +8698,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
+        <v>755</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>758</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -8741,9 +8742,7 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8763,7 +8762,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -8790,7 +8789,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>10</v>
@@ -8806,7 +8805,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25">
@@ -8816,16 +8815,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="60" t="s">
+        <v>760</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>761</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>762</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K2" s="54"/>
     </row>
@@ -8837,7 +8836,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25">
@@ -8847,16 +8846,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="60" t="s">
+        <v>763</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>764</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>765</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -8868,7 +8867,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25">
@@ -8878,16 +8877,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>768</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>769</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K4" s="54"/>
     </row>
@@ -8899,7 +8898,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25">
@@ -8909,16 +8908,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K5" s="54"/>
     </row>
@@ -8930,7 +8929,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25">
@@ -8940,16 +8939,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>772</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>773</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K6" s="54"/>
     </row>
@@ -8961,7 +8960,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25">
@@ -8971,16 +8970,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="60" t="s">
+        <v>774</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>775</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>776</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K7" s="54"/>
     </row>
@@ -8992,7 +8991,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25">
@@ -9002,16 +9001,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="60" t="s">
+        <v>777</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>778</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>779</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K8" s="54"/>
     </row>
@@ -9023,7 +9022,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50">
@@ -9033,16 +9032,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="64" t="s">
+        <v>781</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>782</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>783</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K9" s="54"/>
     </row>
@@ -9054,7 +9053,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25">
@@ -9064,16 +9063,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="60" t="s">
+        <v>784</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>785</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>786</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K10" s="54"/>
     </row>
@@ -9085,7 +9084,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25">
@@ -9095,16 +9094,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="60" t="s">
+        <v>787</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>788</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>789</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K11" s="54"/>
     </row>
@@ -9116,7 +9115,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25">
@@ -9126,16 +9125,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
+        <v>790</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>791</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>792</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K12" s="54"/>
     </row>
@@ -9147,7 +9146,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25">
@@ -9157,16 +9156,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
+        <v>793</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>794</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>795</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K13" s="54"/>
     </row>
@@ -9178,7 +9177,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25">
@@ -9188,16 +9187,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="60" t="s">
+        <v>796</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>797</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>798</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K14" s="54"/>
     </row>
@@ -9252,7 +9251,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -9295,7 +9294,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -9305,16 +9304,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
+        <v>800</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>802</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K2" s="56"/>
     </row>
@@ -9326,7 +9325,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -9336,16 +9335,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
+        <v>803</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>805</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>806</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -9357,7 +9356,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -9367,16 +9366,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
+        <v>807</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>809</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>810</v>
       </c>
       <c r="K4" s="56"/>
     </row>
@@ -9388,7 +9387,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -9398,13 +9397,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
+        <v>811</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>813</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J5" s="10">
         <v>0</v>
@@ -9419,7 +9418,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -9429,16 +9428,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
+        <v>814</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>816</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>817</v>
       </c>
       <c r="K6" s="56"/>
     </row>
@@ -9450,7 +9449,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -9460,13 +9459,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
+        <v>818</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>820</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J7" s="10">
         <v>5</v>
@@ -9481,7 +9480,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -9491,16 +9490,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
+        <v>821</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>823</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>824</v>
       </c>
       <c r="K8" s="56"/>
     </row>
@@ -9512,7 +9511,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -9522,16 +9521,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
+        <v>825</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>827</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>828</v>
       </c>
       <c r="K9" s="56"/>
     </row>
@@ -9543,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -9553,16 +9552,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
+        <v>829</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>831</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K10" s="56"/>
     </row>
@@ -9574,7 +9573,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -9584,16 +9583,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -9605,7 +9604,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -9615,16 +9614,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -9636,7 +9635,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -9646,16 +9645,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K13" s="56"/>
     </row>
@@ -9667,7 +9666,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -9677,16 +9676,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K14" s="56"/>
     </row>
@@ -9698,7 +9697,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -9708,13 +9707,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="56"/>
@@ -9755,7 +9754,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -9798,7 +9797,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -9808,19 +9807,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>845</v>
-      </c>
       <c r="K2" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -9831,7 +9830,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -9840,19 +9839,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G3" s="63" t="s">
+        <v>846</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>848</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>849</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>23</v>
@@ -9866,7 +9865,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -9876,16 +9875,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>851</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>852</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>23</v>
@@ -9899,7 +9898,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -9909,16 +9908,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>854</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>855</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>23</v>
@@ -9932,7 +9931,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -9942,16 +9941,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>857</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>858</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>23</v>
@@ -9965,7 +9964,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -9975,19 +9974,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J7" s="58" t="s">
         <v>860</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>861</v>
-      </c>
       <c r="K7" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9998,7 +9997,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -10008,19 +10007,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>863</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>864</v>
-      </c>
       <c r="K8" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -10031,7 +10030,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -10043,16 +10042,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
+        <v>865</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>867</v>
-      </c>
       <c r="I9" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="56"/>
     </row>
@@ -10064,7 +10063,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -10074,13 +10073,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>870</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>871</v>
       </c>
       <c r="J10" s="10">
         <v>10000</v>
@@ -10097,7 +10096,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -10107,16 +10106,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -10128,7 +10127,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -10138,16 +10137,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>874</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>875</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -10159,7 +10158,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -10169,19 +10168,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>358</v>
-      </c>
       <c r="K13" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -10220,7 +10219,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -10263,7 +10262,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -10273,19 +10272,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>880</v>
-      </c>
       <c r="K2" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -10296,7 +10295,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -10306,16 +10305,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
+        <v>881</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>883</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>884</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>23</v>
@@ -10329,7 +10328,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -10341,16 +10340,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="10" t="s">
         <v>886</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>887</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>23</v>
@@ -10364,7 +10363,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
@@ -10376,16 +10375,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>888</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>889</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>23</v>
@@ -10399,7 +10398,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
@@ -10411,16 +10410,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>890</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>891</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>23</v>
@@ -10434,7 +10433,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -10444,19 +10443,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>893</v>
-      </c>
       <c r="K7" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -10467,7 +10466,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -10477,19 +10476,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>895</v>
-      </c>
       <c r="K8" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -10512,19 +10511,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>897</v>
-      </c>
       <c r="K9" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -10535,7 +10534,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -10545,16 +10544,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
+        <v>898</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>902</v>
       </c>
       <c r="K10" s="56"/>
     </row>
@@ -10566,7 +10565,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -10576,16 +10575,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>903</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>904</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -10597,7 +10596,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
@@ -10609,16 +10608,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -10630,7 +10629,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -10640,16 +10639,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>907</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>908</v>
       </c>
       <c r="K13" s="56"/>
     </row>
@@ -10661,7 +10660,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -10671,13 +10670,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J14" s="10">
         <v>100</v>
@@ -10692,7 +10691,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -10702,16 +10701,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
+        <v>911</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>913</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>914</v>
       </c>
       <c r="K15" s="56"/>
     </row>
@@ -10723,26 +10722,26 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>916</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>917</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>23</v>
@@ -10756,7 +10755,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -10766,13 +10765,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
+        <v>918</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>920</v>
-      </c>
       <c r="I17" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J17" s="51">
         <v>100</v>
@@ -10789,7 +10788,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
@@ -10799,13 +10798,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="63" t="s">
+        <v>921</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>923</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J18" s="51">
         <v>300</v>
@@ -10822,7 +10821,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
@@ -10832,13 +10831,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="63" t="s">
+        <v>924</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>926</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J19" s="51">
         <v>12</v>
@@ -10855,7 +10854,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -10865,13 +10864,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="63" t="s">
+        <v>927</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>929</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J20" s="51">
         <v>3</v>
@@ -10888,7 +10887,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -10898,13 +10897,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="63" t="s">
+        <v>930</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>932</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J21" s="51">
         <v>1</v>
@@ -10921,7 +10920,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -10931,16 +10930,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="63" t="s">
+        <v>933</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>935</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>936</v>
       </c>
       <c r="K22" s="56" t="s">
         <v>23</v>
@@ -10954,7 +10953,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
@@ -10964,16 +10963,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="63" t="s">
+        <v>937</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="J23" s="53" t="s">
         <v>939</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>940</v>
       </c>
       <c r="K23" s="56" t="s">
         <v>23</v>
@@ -10987,7 +10986,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
@@ -10997,16 +10996,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>941</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>942</v>
       </c>
       <c r="K24" s="56"/>
     </row>
@@ -11018,7 +11017,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
@@ -11028,19 +11027,19 @@
         <v>1</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>358</v>
-      </c>
       <c r="K25" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -11051,7 +11050,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
@@ -11061,16 +11060,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I26" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="K26" s="56"/>
     </row>
@@ -11117,7 +11116,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -11160,7 +11159,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -11170,19 +11169,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>947</v>
-      </c>
       <c r="K2" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -11193,7 +11192,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -11203,16 +11202,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
+        <v>948</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>950</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>951</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -11224,7 +11223,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -11234,16 +11233,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>953</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>954</v>
       </c>
       <c r="K4" s="56"/>
     </row>
@@ -11255,7 +11254,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
@@ -11267,16 +11266,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>955</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>956</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>23</v>
@@ -11290,7 +11289,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
@@ -11302,16 +11301,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>957</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>958</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>23</v>
@@ -11325,7 +11324,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
@@ -11337,16 +11336,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>959</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>960</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>23</v>
@@ -11370,19 +11369,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>962</v>
-      </c>
       <c r="K8" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11393,7 +11392,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -11403,16 +11402,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>963</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>964</v>
       </c>
       <c r="K9" s="56"/>
     </row>
@@ -11424,7 +11423,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -11436,16 +11435,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10" s="56"/>
     </row>
@@ -11457,7 +11456,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -11467,16 +11466,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>967</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>968</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -11488,7 +11487,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -11498,16 +11497,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>969</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>970</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -11519,7 +11518,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -11529,16 +11528,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="K13" s="56"/>
     </row>
@@ -11550,7 +11549,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -11560,16 +11559,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>972</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>973</v>
       </c>
       <c r="K14" s="56"/>
     </row>
@@ -11581,7 +11580,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -11591,16 +11590,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
+        <v>974</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>976</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>977</v>
       </c>
       <c r="K15" s="56"/>
     </row>
@@ -11612,7 +11611,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
@@ -11622,16 +11621,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="63" t="s">
+        <v>977</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>979</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>980</v>
       </c>
       <c r="K16" s="56"/>
     </row>
@@ -11643,7 +11642,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -11653,19 +11652,19 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11694,7 +11693,7 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -11714,7 +11713,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -11757,7 +11756,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25">
@@ -11767,16 +11766,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>133</v>
       </c>
       <c r="K2" s="54"/>
     </row>
@@ -11788,7 +11787,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25">
@@ -11798,16 +11797,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>136</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" s="55"/>
     </row>
@@ -11819,7 +11818,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25">
@@ -11829,16 +11828,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>140</v>
-      </c>
       <c r="I4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="K4" s="55"/>
     </row>
@@ -11888,7 +11887,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -11931,28 +11930,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25">
-        <v>1</v>
-      </c>
-      <c r="G2" s="60" t="s">
+      <c r="H2" s="26" t="s">
         <v>143</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>144</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" s="54"/>
     </row>
@@ -11964,7 +11963,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25">
@@ -11974,16 +11973,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>148</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>149</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -11995,7 +11994,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25">
@@ -12005,16 +12004,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="43" t="s">
         <v>152</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>153</v>
       </c>
       <c r="K4" s="54"/>
     </row>
@@ -12026,7 +12025,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25">
@@ -12036,16 +12035,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="I5" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="43" t="s">
         <v>156</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>157</v>
       </c>
       <c r="K5" s="54"/>
     </row>
@@ -12057,7 +12056,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25">
@@ -12067,19 +12066,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12090,7 +12089,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25">
@@ -12100,16 +12099,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K7" s="54"/>
     </row>
@@ -12121,31 +12120,31 @@
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60" t="s">
+      <c r="H8" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -12159,7 +12158,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="25">
         <v>1</v>
@@ -12168,19 +12167,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12191,29 +12190,29 @@
         <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25">
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="H10" s="26" t="s">
         <v>173</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12224,28 +12223,28 @@
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="60" t="s">
+      <c r="H11" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>177</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K11" s="54"/>
     </row>
@@ -12257,28 +12256,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-      <c r="F12" s="25">
-        <v>1</v>
-      </c>
-      <c r="G12" s="60" t="s">
+      <c r="H12" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="28" t="s">
         <v>181</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>182</v>
       </c>
       <c r="K12" s="54"/>
     </row>
@@ -12290,7 +12289,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25">
@@ -12300,16 +12299,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="I13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>186</v>
       </c>
       <c r="K13" s="54"/>
     </row>
@@ -12321,7 +12320,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25">
@@ -12331,16 +12330,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K14" s="54" t="s">
         <v>23</v>
@@ -12354,7 +12353,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25">
@@ -12364,16 +12363,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>193</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K15" s="54" t="s">
         <v>23</v>
@@ -12387,7 +12386,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25">
@@ -12397,16 +12396,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>197</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K16" s="54"/>
     </row>
@@ -12418,7 +12417,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25">
@@ -12428,16 +12427,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="54"/>
     </row>
@@ -12449,7 +12448,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25">
@@ -12459,16 +12458,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K18" s="54"/>
     </row>
@@ -12480,7 +12479,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25">
@@ -12490,19 +12489,19 @@
         <v>1</v>
       </c>
       <c r="G19" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="I19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>210</v>
-      </c>
       <c r="K19" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12513,7 +12512,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25">
@@ -12523,19 +12522,19 @@
         <v>1</v>
       </c>
       <c r="G20" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="I20" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12546,7 +12545,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25">
@@ -12556,19 +12555,19 @@
         <v>1</v>
       </c>
       <c r="G21" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="K21" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12579,7 +12578,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25">
@@ -12589,19 +12588,19 @@
         <v>1</v>
       </c>
       <c r="G22" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>222</v>
-      </c>
       <c r="K22" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12612,7 +12611,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25">
@@ -12622,16 +12621,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K23" s="54"/>
     </row>
@@ -12643,7 +12642,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25">
@@ -12653,16 +12652,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="I24" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="K24" s="54"/>
     </row>
@@ -12674,28 +12673,28 @@
         <v>11</v>
       </c>
       <c r="C25" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="60" t="s">
+      <c r="H25" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="26" t="s">
-        <v>233</v>
-      </c>
       <c r="I25" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K25" s="54" t="s">
         <v>23</v>
@@ -12709,28 +12708,28 @@
         <v>11</v>
       </c>
       <c r="C26" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="25">
+        <v>1</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="25">
-        <v>1</v>
-      </c>
-      <c r="F26" s="25">
-        <v>1</v>
-      </c>
-      <c r="G26" s="60" t="s">
+      <c r="H26" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="I26" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="53" t="s">
         <v>236</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="53" t="s">
-        <v>237</v>
       </c>
       <c r="K26" s="54"/>
     </row>
@@ -12742,28 +12741,28 @@
         <v>11</v>
       </c>
       <c r="C27" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25">
+        <v>1</v>
+      </c>
+      <c r="G27" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="25">
-        <v>1</v>
-      </c>
-      <c r="F27" s="25">
-        <v>1</v>
-      </c>
-      <c r="G27" s="60" t="s">
+      <c r="H27" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="53" t="s">
         <v>240</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>241</v>
       </c>
       <c r="K27" s="54"/>
     </row>
@@ -12775,28 +12774,28 @@
         <v>11</v>
       </c>
       <c r="C28" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25">
+        <v>1</v>
+      </c>
+      <c r="G28" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="25">
-        <v>1</v>
-      </c>
-      <c r="F28" s="25">
-        <v>1</v>
-      </c>
-      <c r="G28" s="60" t="s">
+      <c r="H28" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>244</v>
       </c>
       <c r="I28" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K28" s="55"/>
       <c r="L28" s="29"/>
@@ -12809,28 +12808,28 @@
         <v>11</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1</v>
+      </c>
+      <c r="F29" s="25">
+        <v>1</v>
+      </c>
+      <c r="G29" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="25">
-        <v>1</v>
-      </c>
-      <c r="F29" s="25">
-        <v>1</v>
-      </c>
-      <c r="G29" s="60" t="s">
+      <c r="H29" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>248</v>
       </c>
       <c r="I29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K29" s="55" t="s">
         <v>23</v>
@@ -12845,28 +12844,28 @@
         <v>11</v>
       </c>
       <c r="C30" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="25">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25">
+        <v>1</v>
+      </c>
+      <c r="G30" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="25">
-        <v>1</v>
-      </c>
-      <c r="F30" s="25">
-        <v>1</v>
-      </c>
-      <c r="G30" s="60" t="s">
+      <c r="H30" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="H30" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="I30" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="K30" s="54" t="s">
         <v>23</v>
@@ -12880,28 +12879,28 @@
         <v>11</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="25">
+        <v>1</v>
+      </c>
+      <c r="F31" s="25">
+        <v>1</v>
+      </c>
+      <c r="G31" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="25">
-        <v>1</v>
-      </c>
-      <c r="F31" s="25">
-        <v>1</v>
-      </c>
-      <c r="G31" s="60" t="s">
+      <c r="H31" s="26" t="s">
         <v>254</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>255</v>
       </c>
       <c r="I31" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K31" s="54"/>
     </row>
@@ -12913,7 +12912,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25">
@@ -12923,16 +12922,16 @@
         <v>18</v>
       </c>
       <c r="G32" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="I32" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="K32" s="54"/>
     </row>
@@ -12944,7 +12943,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25">
@@ -12954,16 +12953,16 @@
         <v>1</v>
       </c>
       <c r="G33" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>263</v>
       </c>
       <c r="I33" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K33" s="54"/>
     </row>
@@ -12975,28 +12974,28 @@
         <v>11</v>
       </c>
       <c r="C34" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="25">
+        <v>1</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1</v>
+      </c>
+      <c r="G34" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="25">
-        <v>1</v>
-      </c>
-      <c r="F34" s="25">
-        <v>1</v>
-      </c>
-      <c r="G34" s="60" t="s">
+      <c r="H34" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>267</v>
       </c>
       <c r="I34" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K34" s="54"/>
     </row>
@@ -13008,7 +13007,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25">
@@ -13018,16 +13017,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="H35" s="26" t="s">
         <v>270</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>271</v>
       </c>
       <c r="I35" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K35" s="54"/>
     </row>
@@ -13039,7 +13038,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25">
@@ -13049,16 +13048,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I36" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K36" s="54" t="s">
         <v>23</v>
@@ -13072,28 +13071,28 @@
         <v>11</v>
       </c>
       <c r="C37" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="25">
+        <v>1</v>
+      </c>
+      <c r="F37" s="25">
+        <v>1</v>
+      </c>
+      <c r="G37" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="25">
-        <v>1</v>
-      </c>
-      <c r="F37" s="25">
-        <v>1</v>
-      </c>
-      <c r="G37" s="60" t="s">
+      <c r="H37" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>278</v>
       </c>
       <c r="I37" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K37" s="54" t="s">
         <v>23</v>
@@ -13107,7 +13106,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25">
@@ -13117,16 +13116,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="26" t="s">
         <v>281</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>282</v>
       </c>
       <c r="I38" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K38" s="54"/>
     </row>
@@ -13138,7 +13137,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25">
@@ -13148,10 +13147,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" s="26" t="s">
         <v>285</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>286</v>
       </c>
       <c r="I39" s="26" t="s">
         <v>16</v>
@@ -13171,7 +13170,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25">
@@ -13181,16 +13180,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="26" t="s">
         <v>288</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>289</v>
       </c>
       <c r="I40" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K40" s="54"/>
     </row>
@@ -13202,28 +13201,28 @@
         <v>11</v>
       </c>
       <c r="C41" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="25">
+        <v>1</v>
+      </c>
+      <c r="F41" s="25">
+        <v>1</v>
+      </c>
+      <c r="G41" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="25">
-        <v>1</v>
-      </c>
-      <c r="F41" s="25">
-        <v>1</v>
-      </c>
-      <c r="G41" s="60" t="s">
+      <c r="H41" s="26" t="s">
         <v>292</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>293</v>
       </c>
       <c r="I41" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K41" s="54"/>
     </row>
@@ -13235,7 +13234,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25">
@@ -13245,10 +13244,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="26" t="s">
         <v>296</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>297</v>
       </c>
       <c r="I42" s="26" t="s">
         <v>16</v>
@@ -13268,7 +13267,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25">
@@ -13278,16 +13277,16 @@
         <v>1</v>
       </c>
       <c r="G43" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="H43" s="26" t="s">
         <v>299</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>300</v>
       </c>
       <c r="I43" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K43" s="54"/>
     </row>
@@ -13299,7 +13298,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25">
@@ -13309,16 +13308,16 @@
         <v>1</v>
       </c>
       <c r="G44" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="H44" s="44" t="s">
         <v>303</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>304</v>
       </c>
       <c r="I44" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K44" s="54"/>
     </row>
@@ -13330,7 +13329,7 @@
         <v>11</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25">
@@ -13340,16 +13339,16 @@
         <v>1</v>
       </c>
       <c r="G45" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="H45" s="44" t="s">
         <v>307</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>308</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K45" s="54"/>
     </row>
@@ -13361,7 +13360,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25">
@@ -13371,16 +13370,16 @@
         <v>1</v>
       </c>
       <c r="G46" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="H46" s="44" t="s">
         <v>310</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>311</v>
       </c>
       <c r="I46" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J46" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K46" s="54"/>
     </row>
@@ -13392,7 +13391,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25">
@@ -13402,16 +13401,16 @@
         <v>1</v>
       </c>
       <c r="G47" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" s="44" t="s">
         <v>314</v>
-      </c>
-      <c r="H47" s="44" t="s">
-        <v>315</v>
       </c>
       <c r="I47" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J47" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K47" s="54"/>
     </row>
@@ -13423,7 +13422,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25">
@@ -13433,16 +13432,16 @@
         <v>1</v>
       </c>
       <c r="G48" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="H48" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="I48" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="53" t="s">
         <v>318</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J48" s="53" t="s">
-        <v>319</v>
       </c>
       <c r="K48" s="54"/>
     </row>
@@ -13454,7 +13453,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25">
@@ -13464,16 +13463,16 @@
         <v>1</v>
       </c>
       <c r="G49" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="H49" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="I49" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J49" s="53" t="s">
         <v>322</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J49" s="53" t="s">
-        <v>323</v>
       </c>
       <c r="K49" s="54"/>
     </row>
@@ -13485,7 +13484,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="25">
@@ -13495,16 +13494,16 @@
         <v>1</v>
       </c>
       <c r="G50" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="H50" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="H50" s="44" t="s">
-        <v>326</v>
-      </c>
       <c r="I50" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K50" s="54"/>
     </row>
@@ -13516,7 +13515,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25">
@@ -13526,16 +13525,16 @@
         <v>1</v>
       </c>
       <c r="G51" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="H51" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="I51" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J51" s="53" t="s">
         <v>329</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J51" s="53" t="s">
-        <v>330</v>
       </c>
       <c r="K51" s="54"/>
     </row>
@@ -13547,7 +13546,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25">
@@ -13557,16 +13556,16 @@
         <v>1</v>
       </c>
       <c r="G52" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="H52" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="H52" s="44" t="s">
+      <c r="I52" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="28" t="s">
         <v>333</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>334</v>
       </c>
       <c r="K52" s="54"/>
     </row>
@@ -13578,28 +13577,28 @@
         <v>11</v>
       </c>
       <c r="C53" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="25">
+        <v>1</v>
+      </c>
+      <c r="F53" s="25">
+        <v>1</v>
+      </c>
+      <c r="G53" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="25">
-        <v>1</v>
-      </c>
-      <c r="F53" s="25">
-        <v>1</v>
-      </c>
-      <c r="G53" s="60" t="s">
+      <c r="H53" s="44" t="s">
         <v>336</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>337</v>
       </c>
       <c r="I53" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K53" s="54"/>
     </row>
@@ -13611,7 +13610,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25">
@@ -13621,16 +13620,16 @@
         <v>1</v>
       </c>
       <c r="G54" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="H54" s="44" t="s">
         <v>340</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>341</v>
       </c>
       <c r="I54" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J54" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K54" s="54"/>
     </row>
@@ -13642,7 +13641,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25">
@@ -13652,16 +13651,16 @@
         <v>1</v>
       </c>
       <c r="G55" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="H55" s="44" t="s">
         <v>344</v>
-      </c>
-      <c r="H55" s="44" t="s">
-        <v>345</v>
       </c>
       <c r="I55" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J55" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K55" s="54"/>
     </row>
@@ -13673,7 +13672,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25">
@@ -13683,16 +13682,16 @@
         <v>1</v>
       </c>
       <c r="G56" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="H56" s="26" t="s">
         <v>348</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>349</v>
       </c>
       <c r="I56" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K56" s="54"/>
     </row>
@@ -13704,7 +13703,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25">
@@ -13714,16 +13713,16 @@
         <v>1</v>
       </c>
       <c r="G57" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="H57" s="44" t="s">
         <v>352</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>353</v>
       </c>
       <c r="I57" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K57" s="54"/>
     </row>
@@ -13735,31 +13734,31 @@
         <v>11</v>
       </c>
       <c r="C58" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="46">
+        <v>1</v>
+      </c>
+      <c r="F58" s="46">
+        <v>1</v>
+      </c>
+      <c r="G58" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="D58" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E58" s="46">
-        <v>1</v>
-      </c>
-      <c r="F58" s="46">
-        <v>1</v>
-      </c>
-      <c r="G58" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" s="26" t="s">
+      <c r="I58" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="J58" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="J58" s="28" t="s">
-        <v>358</v>
-      </c>
       <c r="K58" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -13770,7 +13769,7 @@
         <v>11</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D59" s="46"/>
       <c r="E59" s="46">
@@ -13780,16 +13779,16 @@
         <v>1</v>
       </c>
       <c r="G59" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="H59" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="I59" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="I59" s="26" t="s">
+      <c r="J59" s="28" t="s">
         <v>362</v>
-      </c>
-      <c r="J59" s="28" t="s">
-        <v>363</v>
       </c>
       <c r="K59" s="54"/>
     </row>
@@ -13801,7 +13800,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D60" s="46"/>
       <c r="E60" s="46">
@@ -13811,16 +13810,16 @@
         <v>1</v>
       </c>
       <c r="G60" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="H60" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="I60" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="I60" s="26" t="s">
+      <c r="J60" s="28" t="s">
         <v>367</v>
-      </c>
-      <c r="J60" s="28" t="s">
-        <v>368</v>
       </c>
       <c r="K60" s="54"/>
     </row>
@@ -13883,7 +13882,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -13926,25 +13925,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25">
-        <v>1</v>
-      </c>
-      <c r="G2" s="60" t="s">
+      <c r="H2" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>371</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>372</v>
       </c>
       <c r="J2" s="43">
         <v>131016</v>
@@ -13959,22 +13958,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="25">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25">
-        <v>1</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="H3" s="26" t="s">
         <v>374</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>375</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>37</v>
@@ -13992,28 +13991,28 @@
         <v>11</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25">
-        <v>1</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="H4" s="48" t="s">
         <v>377</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>378</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K4" s="54" t="s">
         <v>23</v>
@@ -14027,28 +14026,28 @@
         <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25">
-        <v>1</v>
-      </c>
-      <c r="G5" s="60" t="s">
+      <c r="H5" s="48" t="s">
         <v>381</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>382</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>23</v>
@@ -14062,28 +14061,28 @@
         <v>11</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="60" t="s">
+      <c r="H6" s="48" t="s">
         <v>385</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>386</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K6" s="54"/>
     </row>
@@ -14095,28 +14094,28 @@
         <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="60" t="s">
+      <c r="H7" s="48" t="s">
         <v>389</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>390</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K7" s="54"/>
     </row>
@@ -14128,28 +14127,28 @@
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60" t="s">
+      <c r="H8" s="48" t="s">
         <v>393</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>394</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K8" s="54"/>
     </row>
@@ -14161,7 +14160,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25">
@@ -14171,16 +14170,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" s="48" t="s">
         <v>397</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>398</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K9" s="54"/>
     </row>
@@ -14192,7 +14191,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25">
@@ -14202,13 +14201,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="H10" s="48" t="s">
-        <v>402</v>
-      </c>
       <c r="I10" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J10" s="43">
         <v>35.680959100000003</v>
@@ -14223,7 +14222,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25">
@@ -14233,13 +14232,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="H11" s="48" t="s">
-        <v>405</v>
-      </c>
       <c r="I11" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J11" s="43">
         <v>139.7673068</v>
@@ -14254,7 +14253,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25">
@@ -14264,16 +14263,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" s="48" t="s">
         <v>407</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>408</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K12" s="54"/>
     </row>
@@ -14285,7 +14284,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25">
@@ -14295,16 +14294,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="H13" s="48" t="s">
         <v>411</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="I13" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="J13" s="43" t="s">
         <v>413</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>414</v>
       </c>
       <c r="K13" s="54"/>
     </row>
@@ -14316,7 +14315,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50">
@@ -14326,19 +14325,19 @@
         <v>1</v>
       </c>
       <c r="G14" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="H14" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="I14" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="K14" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14349,7 +14348,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25">
@@ -14359,16 +14358,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="60" t="s">
+        <v>420</v>
+      </c>
+      <c r="H15" s="48" t="s">
         <v>421</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>422</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K15" s="54"/>
     </row>
@@ -14380,7 +14379,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25">
@@ -14390,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="H16" s="48" t="s">
         <v>425</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>426</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K16" s="54" t="s">
         <v>23</v>
@@ -14413,7 +14412,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25">
@@ -14423,16 +14422,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="H17" s="48" t="s">
         <v>429</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>430</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K17" s="54" t="s">
         <v>23</v>
@@ -14446,7 +14445,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25">
@@ -14456,16 +14455,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>432</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>433</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K18" s="54"/>
     </row>
@@ -14477,7 +14476,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25">
@@ -14487,16 +14486,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>436</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>437</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K19" s="54"/>
     </row>
@@ -14508,7 +14507,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25">
@@ -14518,16 +14517,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="60" t="s">
+        <v>439</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>440</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>441</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K20" s="54"/>
     </row>
@@ -14539,7 +14538,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25">
@@ -14549,10 +14548,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>444</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>445</v>
       </c>
       <c r="I21" s="26" t="s">
         <v>27</v>
@@ -14570,7 +14569,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25">
@@ -14580,10 +14579,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>447</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>448</v>
       </c>
       <c r="I22" s="26" t="s">
         <v>27</v>
@@ -14601,7 +14600,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25">
@@ -14611,16 +14610,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="60" t="s">
+        <v>449</v>
+      </c>
+      <c r="H23" s="26" t="s">
         <v>450</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>451</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K23" s="54"/>
     </row>
@@ -14632,7 +14631,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25">
@@ -14642,16 +14641,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>454</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>455</v>
       </c>
       <c r="I24" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K24" s="54"/>
     </row>
@@ -14663,7 +14662,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25">
@@ -14673,16 +14672,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="60" t="s">
+        <v>457</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>458</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>459</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K25" s="54"/>
     </row>
@@ -14694,7 +14693,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25">
@@ -14704,16 +14703,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>462</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>463</v>
       </c>
       <c r="I26" s="26" t="s">
         <v>27</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K26" s="54"/>
     </row>
@@ -14771,7 +14770,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -14817,25 +14816,25 @@
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="H2" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>23</v>
@@ -14850,31 +14849,31 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>470</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>474</v>
-      </c>
       <c r="K3" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -14886,31 +14885,31 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="63" t="s">
         <v>475</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="63" t="s">
+      <c r="H4" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>478</v>
-      </c>
       <c r="K4" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -14922,28 +14921,28 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>479</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="10" t="s">
         <v>482</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>483</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>23</v>
@@ -14958,28 +14957,28 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="63" t="s">
         <v>484</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="63" t="s">
+      <c r="H6" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>23</v>
@@ -14994,7 +14993,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -15004,16 +15003,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="K7" s="56"/>
       <c r="L7" s="1"/>
@@ -15026,7 +15025,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -15036,16 +15035,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>496</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>497</v>
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="1"/>
@@ -15058,7 +15057,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -15068,16 +15067,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>501</v>
       </c>
       <c r="K9" s="56" t="s">
         <v>23</v>
@@ -15092,7 +15091,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -15102,16 +15101,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
+        <v>502</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>504</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>505</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>23</v>
@@ -15126,7 +15125,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -15136,16 +15135,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>508</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>509</v>
       </c>
       <c r="K11" s="56"/>
       <c r="L11" s="1"/>
@@ -15158,26 +15157,26 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G12" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>513</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>23</v>
@@ -15192,26 +15191,26 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G13" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="K13" s="56" t="s">
         <v>23</v>
@@ -15226,26 +15225,26 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G14" s="63" t="s">
+        <v>518</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="K14" s="56"/>
       <c r="L14" s="1"/>
@@ -15258,7 +15257,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -15268,16 +15267,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>524</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K15" s="56"/>
       <c r="L15" s="1"/>
@@ -15290,7 +15289,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
@@ -15300,16 +15299,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="63" t="s">
+        <v>525</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>527</v>
-      </c>
       <c r="I16" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="K16" s="56"/>
       <c r="L16" s="1"/>
@@ -15322,7 +15321,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -15332,16 +15331,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
+        <v>528</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>530</v>
-      </c>
       <c r="I17" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="K17" s="56"/>
       <c r="L17" s="1"/>
@@ -15354,28 +15353,28 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="63" t="s">
+      <c r="H18" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>533</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>534</v>
       </c>
       <c r="K18" s="56"/>
       <c r="L18" s="1"/>
@@ -15388,7 +15387,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
@@ -15398,16 +15397,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="63" t="s">
+        <v>535</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="53" t="s">
         <v>537</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>538</v>
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="1"/>
@@ -15420,7 +15419,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -15430,16 +15429,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="63" t="s">
+        <v>539</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>541</v>
-      </c>
       <c r="I20" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="J20" s="53" t="s">
         <v>537</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>538</v>
       </c>
       <c r="K20" s="56"/>
       <c r="L20" s="1"/>
@@ -15452,7 +15451,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -15462,13 +15461,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="63" t="s">
+        <v>542</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="J21" s="10">
         <v>21</v>
@@ -15484,7 +15483,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -15494,13 +15493,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="63" t="s">
+        <v>546</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>548</v>
-      </c>
       <c r="I22" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J22" s="10">
         <v>155</v>
@@ -15516,7 +15515,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
@@ -15526,13 +15525,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="63" t="s">
+        <v>549</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>551</v>
-      </c>
       <c r="I23" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J23" s="10">
         <v>40</v>
@@ -15548,7 +15547,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
@@ -15558,16 +15557,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="63" t="s">
+        <v>552</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>554</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>555</v>
       </c>
       <c r="K24" s="56"/>
     </row>
@@ -15579,7 +15578,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
@@ -15589,16 +15588,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="63" t="s">
+        <v>556</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>558</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>559</v>
       </c>
       <c r="K25" s="56"/>
     </row>
@@ -15610,26 +15609,26 @@
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G26" s="63" t="s">
+        <v>560</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>562</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>563</v>
       </c>
       <c r="K26" s="56"/>
     </row>
@@ -15641,7 +15640,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5">
@@ -15651,16 +15650,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="63" t="s">
+        <v>564</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>566</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>567</v>
       </c>
       <c r="K27" s="57"/>
     </row>
@@ -15672,7 +15671,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5">
@@ -15682,16 +15681,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="63" t="s">
+        <v>568</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>570</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>571</v>
       </c>
       <c r="K28" s="57"/>
     </row>
@@ -15703,7 +15702,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5">
@@ -15713,16 +15712,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>574</v>
-      </c>
       <c r="I29" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K29" s="56"/>
     </row>
@@ -15734,7 +15733,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5">
@@ -15744,16 +15743,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="63" t="s">
+        <v>575</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>577</v>
-      </c>
       <c r="I30" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K30" s="56"/>
     </row>
@@ -15765,7 +15764,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
@@ -15775,16 +15774,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="63" t="s">
+        <v>578</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>580</v>
-      </c>
       <c r="I31" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K31" s="56"/>
     </row>
@@ -15796,7 +15795,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5">
@@ -15806,16 +15805,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="63" t="s">
+        <v>581</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>583</v>
-      </c>
       <c r="I32" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K32" s="56"/>
     </row>
@@ -15827,7 +15826,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
@@ -15837,16 +15836,16 @@
         <v>1</v>
       </c>
       <c r="G33" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="J33" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K33" s="56" t="s">
         <v>23</v>
@@ -15860,26 +15859,26 @@
         <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G34" s="63" t="s">
+        <v>588</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="K34" s="56"/>
     </row>
@@ -15891,10 +15890,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -15903,19 +15902,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="J35" s="28" t="s">
-        <v>595</v>
-      </c>
       <c r="K35" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -15960,7 +15959,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -16003,28 +16002,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>596</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="63" t="s">
+      <c r="H2" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>599</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>23</v>
@@ -16038,28 +16037,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>600</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>603</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -16102,7 +16101,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -16145,28 +16144,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>604</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="63" t="s">
+      <c r="H2" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>607</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>23</v>
@@ -16180,28 +16179,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>608</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>611</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -16244,7 +16243,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -16287,28 +16286,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>612</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="63" t="s">
+      <c r="H2" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>616</v>
       </c>
       <c r="K2" s="56"/>
     </row>
@@ -16320,28 +16319,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>620</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>621</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -16404,7 +16403,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -16447,28 +16446,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>596</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="63" t="s">
+      <c r="H2" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>623</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>23</v>
@@ -16482,28 +16481,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>626</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>627</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>23</v>
@@ -16517,28 +16516,28 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="63" t="s">
         <v>628</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="63" t="s">
+      <c r="H4" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>630</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>631</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>23</v>
@@ -16552,28 +16551,28 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>632</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>635</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>23</v>
@@ -16587,7 +16586,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -16597,19 +16596,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
+        <v>635</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>638</v>
-      </c>
       <c r="K6" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -16620,25 +16619,25 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="63" t="s">
         <v>639</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="63" t="s">
+      <c r="H7" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>641</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J7" s="10">
         <v>1307</v>
@@ -16655,10 +16654,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -16667,19 +16666,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
+        <v>641</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>644</v>
-      </c>
       <c r="K8" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -16693,7 +16692,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -16702,19 +16701,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
+        <v>644</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>647</v>
-      </c>
       <c r="K9" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -16725,26 +16724,26 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="G10" s="63" t="s">
         <v>649</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="H10" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>23</v>
@@ -16758,7 +16757,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -16768,16 +16767,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
+        <v>653</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>655</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>656</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -16789,7 +16788,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -16799,16 +16798,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
+        <v>657</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>660</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -16820,28 +16819,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="63" t="s">
         <v>661</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="63" t="s">
+      <c r="H13" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>663</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K13" s="56"/>
     </row>
@@ -16853,26 +16852,26 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G14" s="63" t="s">
+        <v>664</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="10" t="s">
         <v>667</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>668</v>
       </c>
       <c r="K14" s="56"/>
     </row>
@@ -16884,28 +16883,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="63" t="s">
         <v>669</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="63" t="s">
+      <c r="H15" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>671</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>672</v>
       </c>
       <c r="K15" s="56"/>
     </row>
@@ -16917,10 +16916,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -16929,16 +16928,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="63" t="s">
+        <v>672</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>674</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K16" s="56"/>
     </row>
@@ -16950,10 +16949,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -16962,16 +16961,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
+        <v>674</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>676</v>
-      </c>
       <c r="I17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="K17" s="56"/>
     </row>
@@ -16983,7 +16982,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
@@ -16993,16 +16992,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="63" t="s">
+        <v>676</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>678</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>679</v>
       </c>
       <c r="K18" s="56"/>
     </row>
@@ -17014,10 +17013,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -17026,16 +17025,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="63" t="s">
+        <v>679</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>681</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>682</v>
       </c>
       <c r="K19" s="56"/>
     </row>
@@ -17047,7 +17046,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -17057,13 +17056,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="63" t="s">
+        <v>683</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>685</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J20" s="10">
         <v>1500</v>
@@ -17080,7 +17079,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -17090,16 +17089,16 @@
         <v>1</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>686</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>687</v>
       </c>
       <c r="K21" s="56"/>
     </row>
@@ -17111,7 +17110,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -17121,16 +17120,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>688</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>689</v>
       </c>
       <c r="K22" s="56"/>
     </row>
@@ -17142,7 +17141,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
@@ -17152,13 +17151,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J23" s="10">
         <v>500</v>
@@ -17175,7 +17174,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
@@ -17185,16 +17184,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>692</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>693</v>
       </c>
       <c r="K24" s="56"/>
     </row>
@@ -17206,7 +17205,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
@@ -17216,16 +17215,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>694</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>695</v>
       </c>
       <c r="K25" s="56"/>
     </row>
@@ -17237,7 +17236,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
@@ -17247,16 +17246,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K26" s="56"/>
     </row>
@@ -17268,7 +17267,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5">
@@ -17278,13 +17277,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="63" t="s">
+        <v>697</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>699</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>700</v>
       </c>
       <c r="J27" s="10">
         <v>13</v>
@@ -17301,7 +17300,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5">
@@ -17311,13 +17310,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="63" t="s">
+        <v>701</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>703</v>
-      </c>
       <c r="I28" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J28" s="10">
         <v>131016</v>
@@ -17334,7 +17333,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5">
@@ -17344,16 +17343,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="63" t="s">
+        <v>704</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="K29" s="57"/>
     </row>
@@ -17365,7 +17364,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5">
@@ -17375,16 +17374,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="63" t="s">
+        <v>708</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>710</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>711</v>
       </c>
       <c r="K30" s="56"/>
     </row>
@@ -17396,7 +17395,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
@@ -17406,16 +17405,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="63" t="s">
+        <v>712</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>714</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>715</v>
       </c>
       <c r="K31" s="56"/>
     </row>
@@ -17427,10 +17426,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -17439,19 +17438,19 @@
         <v>1</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="28" t="s">
         <v>717</v>
       </c>
-      <c r="J32" s="28" t="s">
-        <v>718</v>
-      </c>
       <c r="K32" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
@@ -17462,7 +17461,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
@@ -17472,16 +17471,16 @@
         <v>1</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I33" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J33" s="28" t="s">
         <v>362</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>363</v>
       </c>
       <c r="K33" s="56"/>
     </row>
@@ -17493,7 +17492,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
@@ -17503,16 +17502,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I34" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J34" s="28" t="s">
         <v>367</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>368</v>
       </c>
       <c r="K34" s="56"/>
     </row>
@@ -17544,6 +17543,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -17554,15 +17562,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17820,16 +17819,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -17837,6 +17826,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5D14FC-D314-4D2E-817A-A6C151AA55A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0FEC0B-7A5F-4D4F-A76C-DDB8DE1B399A}"/>
 </file>
--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E0ED672-72C6-44D0-875E-3A7D1ED2B145}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5727BC67-4EA4-4A45-BEC3-1A99D2AA54D9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="892" firstSheet="4" activeTab="17" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="892" activeTab="3" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="971">
   <si>
     <t>No.</t>
   </si>
@@ -2334,20 +2334,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>EPSGコード</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>数値</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>JGD2011(日本測地系)</t>
-  </si>
-  <si>
     <t>国</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -3074,9 +3060,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>"性別"</t>
-  </si>
-  <si>
     <t>種別関連情報</t>
     <rPh sb="0" eb="2">
       <t>シュベツ</t>
@@ -3106,9 +3089,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>"0(不明)"</t>
-  </si>
-  <si>
     <t>役割</t>
   </si>
   <si>
@@ -4917,361 +4897,394 @@
     <t>coordinateReferenceSystem</t>
   </si>
   <si>
-    <t>epsg</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>largerSectionTown</t>
+  </si>
+  <si>
+    <t>smallAdministrativeUnit</t>
+  </si>
+  <si>
+    <t>displayedAddressFlag</t>
+  </si>
+  <si>
+    <t>areaCode</t>
+  </si>
+  <si>
+    <t>residenceNumber</t>
+  </si>
+  <si>
+    <t>landNumber</t>
+  </si>
+  <si>
+    <t>buildingName</t>
+  </si>
+  <si>
+    <t>floorName</t>
+  </si>
+  <si>
+    <t>locatorName</t>
+  </si>
+  <si>
+    <t>familyName</t>
+  </si>
+  <si>
+    <t>givenName</t>
+  </si>
+  <si>
+    <t>familyNameKana</t>
+  </si>
+  <si>
+    <t>givenNameKana</t>
+  </si>
+  <si>
+    <t>familyNameEn</t>
+  </si>
+  <si>
+    <t>givenNameEn</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>fullNameKana</t>
+  </si>
+  <si>
+    <t>fullNameEn</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>middleNameKana</t>
+  </si>
+  <si>
+    <t>middleNameEn</t>
+  </si>
+  <si>
+    <t>familyRegisterName</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>countryOfBirth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>dateOfDeath</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>functionalSupportRequired</t>
+  </si>
+  <si>
+    <t>functionalSupportType</t>
+  </si>
+  <si>
+    <t>remarksInformation</t>
+  </si>
+  <si>
+    <t>headOfHousehold</t>
+  </si>
+  <si>
+    <t>marriedUnmarried</t>
+  </si>
+  <si>
+    <t>spouse</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>incomeStatus</t>
+  </si>
+  <si>
+    <t>residenceAddress</t>
+  </si>
+  <si>
+    <t>roleInformation</t>
+  </si>
+  <si>
+    <t>identificationType</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>typeRelatedInformation</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>involved</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nameKana</t>
+  </si>
+  <si>
+    <t>nameEn</t>
+  </si>
+  <si>
+    <t>poiCode</t>
+  </si>
+  <si>
+    <t>relatedFacility</t>
+  </si>
+  <si>
+    <t>shelter</t>
+  </si>
+  <si>
+    <t>facilityAddress</t>
+  </si>
+  <si>
+    <t>equipmentInformation</t>
+  </si>
+  <si>
+    <t>serviceDay</t>
+  </si>
+  <si>
+    <t>maxCapacity</t>
+  </si>
+  <si>
+    <t>prefectureCode</t>
+  </si>
+  <si>
+    <t>cityCode</t>
+  </si>
+  <si>
+    <t>smallArea</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>contactPointName</t>
+  </si>
+  <si>
+    <t>contactPointPhoneNumber</t>
+  </si>
+  <si>
+    <t>contactPointExtension</t>
+  </si>
+  <si>
+    <t>contactPointEmailAddress</t>
+  </si>
+  <si>
+    <t>contactPointFormUrl</t>
+  </si>
+  <si>
+    <t>contactPointRemarks</t>
+  </si>
+  <si>
+    <t>contactPointPostalCode</t>
+  </si>
+  <si>
+    <t>contactPointAddress</t>
+  </si>
+  <si>
+    <t>contactPointDepartment</t>
+  </si>
+  <si>
+    <t>contactPointPersonsName</t>
+  </si>
+  <si>
+    <t>wheelchairAccessible</t>
+  </si>
+  <si>
+    <t>wheelchairRental</t>
+  </si>
+  <si>
+    <t>caneRental</t>
+  </si>
+  <si>
+    <t>multipurposeToilet</t>
+  </si>
+  <si>
+    <t>rampsElevatorsEscalators</t>
+  </si>
+  <si>
+    <t>mobilitySupportForBrailleBlocksEtc</t>
+  </si>
+  <si>
+    <t>brailleAndReadingAssistance</t>
+  </si>
+  <si>
+    <t>accompaniedByGuideDogsAndServiceDogs</t>
+  </si>
+  <si>
+    <t>subtitles</t>
+  </si>
+  <si>
+    <t>writingSupport</t>
+  </si>
+  <si>
+    <t>priorityParking</t>
+  </si>
+  <si>
+    <t>toiletForOstomates</t>
+  </si>
+  <si>
+    <t>childCareType</t>
+  </si>
+  <si>
+    <t>childCareFee</t>
+  </si>
+  <si>
+    <t>childCareFeeRemarks</t>
+  </si>
+  <si>
+    <t>minAge</t>
+  </si>
+  <si>
+    <t>minAgeInMonths</t>
+  </si>
+  <si>
+    <t>maxAge</t>
+  </si>
+  <si>
+    <t>childCareOpeningHours</t>
+  </si>
+  <si>
+    <t>childCareClosingHours</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>diaperChangingCorner</t>
+  </si>
+  <si>
+    <t>foodAndDrinkAvailable</t>
+  </si>
+  <si>
+    <t>strollerRental</t>
+  </si>
+  <si>
+    <t>strollerUse</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>landAddress</t>
+  </si>
+  <si>
+    <t>siteArea</t>
+  </si>
+  <si>
+    <t>typeInformation</t>
+  </si>
+  <si>
+    <t>relatedBuilding</t>
+  </si>
+  <si>
+    <t>buildingAddress</t>
+  </si>
+  <si>
+    <t>mainFunctions</t>
+  </si>
+  <si>
+    <t>buildingArea</t>
+  </si>
+  <si>
+    <t>totalFloorArea</t>
+  </si>
+  <si>
+    <t>maximumHeight</t>
+  </si>
+  <si>
+    <t>numberOfAboveGroundFloors</t>
+  </si>
+  <si>
+    <t>numberOfUnderGroundFloors</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>completionDate</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>equipmentAddress</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>identificationGroup</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>countyGroup</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>largerSectionTown</t>
-  </si>
-  <si>
-    <t>smallAdministrativeUnit</t>
-  </si>
-  <si>
-    <t>displayedAddressFlag</t>
-  </si>
-  <si>
-    <t>areaCode</t>
-  </si>
-  <si>
-    <t>residenceNumber</t>
-  </si>
-  <si>
-    <t>landNumber</t>
-  </si>
-  <si>
-    <t>buildingName</t>
-  </si>
-  <si>
-    <t>floorName</t>
-  </si>
-  <si>
-    <t>locatorName</t>
-  </si>
-  <si>
-    <t>familyName</t>
-  </si>
-  <si>
-    <t>givenName</t>
-  </si>
-  <si>
-    <t>familyNameKana</t>
-  </si>
-  <si>
-    <t>givenNameKana</t>
-  </si>
-  <si>
-    <t>familyNameEn</t>
-  </si>
-  <si>
-    <t>givenNameEn</t>
-  </si>
-  <si>
-    <t>fullName</t>
-  </si>
-  <si>
-    <t>fullNameKana</t>
-  </si>
-  <si>
-    <t>fullNameEn</t>
-  </si>
-  <si>
-    <t>middleName</t>
-  </si>
-  <si>
-    <t>middleNameKana</t>
-  </si>
-  <si>
-    <t>middleNameEn</t>
-  </si>
-  <si>
-    <t>familyRegisterName</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>countryOfBirth</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>dateOfDeath</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>functionalSupportRequired</t>
-  </si>
-  <si>
-    <t>functionalSupportType</t>
-  </si>
-  <si>
-    <t>remarksInformation</t>
-  </si>
-  <si>
-    <t>headOfHousehold</t>
-  </si>
-  <si>
-    <t>marriedUnmarried</t>
-  </si>
-  <si>
-    <t>spouse</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>incomeStatus</t>
-  </si>
-  <si>
-    <t>residenceAddress</t>
-  </si>
-  <si>
-    <t>roleInformation</t>
-  </si>
-  <si>
-    <t>identificationType</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>typeRelatedInformation</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>involved</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nameKana</t>
-  </si>
-  <si>
-    <t>nameEn</t>
-  </si>
-  <si>
-    <t>poiCode</t>
-  </si>
-  <si>
-    <t>relatedFacility</t>
-  </si>
-  <si>
-    <t>shelter</t>
-  </si>
-  <si>
-    <t>facilityAddress</t>
-  </si>
-  <si>
-    <t>equipmentInformation</t>
-  </si>
-  <si>
-    <t>serviceDay</t>
-  </si>
-  <si>
-    <t>maxCapacity</t>
-  </si>
-  <si>
-    <t>prefectureCode</t>
-  </si>
-  <si>
-    <t>cityCode</t>
-  </si>
-  <si>
-    <t>smallArea</t>
-  </si>
-  <si>
-    <t>polygon</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>contactPointName</t>
-  </si>
-  <si>
-    <t>contactPointPhoneNumber</t>
-  </si>
-  <si>
-    <t>contactPointExtension</t>
-  </si>
-  <si>
-    <t>contactPointEmailAddress</t>
-  </si>
-  <si>
-    <t>contactPointFormUrl</t>
-  </si>
-  <si>
-    <t>contactPointRemarks</t>
-  </si>
-  <si>
-    <t>contactPointPostalCode</t>
-  </si>
-  <si>
-    <t>contactPointAddress</t>
-  </si>
-  <si>
-    <t>contactPointDepartment</t>
-  </si>
-  <si>
-    <t>contactPointPersonsName</t>
-  </si>
-  <si>
-    <t>wheelchairAccessible</t>
-  </si>
-  <si>
-    <t>wheelchairRental</t>
-  </si>
-  <si>
-    <t>caneRental</t>
-  </si>
-  <si>
-    <t>multipurposeToilet</t>
-  </si>
-  <si>
-    <t>rampsElevatorsEscalators</t>
-  </si>
-  <si>
-    <t>mobilitySupportForBrailleBlocksEtc</t>
-  </si>
-  <si>
-    <t>brailleAndReadingAssistance</t>
-  </si>
-  <si>
-    <t>accompaniedByGuideDogsAndServiceDogs</t>
-  </si>
-  <si>
-    <t>subtitles</t>
-  </si>
-  <si>
-    <t>writingSupport</t>
-  </si>
-  <si>
-    <t>priorityParking</t>
-  </si>
-  <si>
-    <t>toiletForOstomates</t>
-  </si>
-  <si>
-    <t>childCareType</t>
-  </si>
-  <si>
-    <t>childCareFee</t>
-  </si>
-  <si>
-    <t>childCareFeeRemarks</t>
-  </si>
-  <si>
-    <t>minAge</t>
-  </si>
-  <si>
-    <t>minAgeInMonths</t>
-  </si>
-  <si>
-    <t>maxAge</t>
-  </si>
-  <si>
-    <t>childCareOpeningHours</t>
-  </si>
-  <si>
-    <t>childCareClosingHours</t>
-  </si>
-  <si>
-    <t>nursery</t>
-  </si>
-  <si>
-    <t>diaperChangingCorner</t>
-  </si>
-  <si>
-    <t>foodAndDrinkAvailable</t>
-  </si>
-  <si>
-    <t>strollerRental</t>
-  </si>
-  <si>
-    <t>strollerUse</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t>landAddress</t>
-  </si>
-  <si>
-    <t>siteArea</t>
-  </si>
-  <si>
-    <t>typeInformation</t>
-  </si>
-  <si>
-    <t>relatedBuilding</t>
-  </si>
-  <si>
-    <t>buildingAddress</t>
-  </si>
-  <si>
-    <t>mainFunctions</t>
-  </si>
-  <si>
-    <t>buildingArea</t>
-  </si>
-  <si>
-    <t>totalFloorArea</t>
-  </si>
-  <si>
-    <t>maximumHeight</t>
-  </si>
-  <si>
-    <t>numberOfAboveGroundFloors</t>
-  </si>
-  <si>
-    <t>numberOfUnderGroundFloors</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>completionDate</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>equipmentAddress</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>identificationGroup</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"旧姓"</t>
+    <rPh sb="1" eb="3">
+      <t>キュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"尾崎"</t>
+    <rPh sb="1" eb="3">
+      <t>オザキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>coordinateReferenceSystemCode</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>座標参照系コード</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>EPSG:6668</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -6155,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>14</v>
@@ -6186,7 +6199,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>18</v>
@@ -6221,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>23</v>
@@ -6254,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>27</v>
@@ -6285,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>31</v>
@@ -6316,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>35</v>
@@ -6347,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>38</v>
@@ -6380,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>41</v>
@@ -6411,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>43</v>
@@ -6420,7 +6433,7 @@
         <v>24</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="K10" s="54" t="s">
         <v>45</v>
@@ -6444,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>47</v>
@@ -6477,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>50</v>
@@ -6508,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>53</v>
@@ -6541,7 +6554,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>57</v>
@@ -6574,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>60</v>
@@ -6605,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>62</v>
@@ -6638,7 +6651,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>64</v>
@@ -6671,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>67</v>
@@ -6702,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>71</v>
@@ -6733,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>74</v>
@@ -6766,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>78</v>
@@ -6797,7 +6810,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>81</v>
@@ -6830,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>84</v>
@@ -6863,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>88</v>
@@ -6896,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>90</v>
@@ -6929,7 +6942,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>94</v>
@@ -6962,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>98</v>
@@ -7076,7 +7089,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -7086,16 +7099,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K2" s="56"/>
     </row>
@@ -7107,26 +7120,26 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -7138,7 +7151,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -7148,13 +7161,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="J4" s="10">
         <v>1234</v>
@@ -7169,7 +7182,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -7179,16 +7192,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K5" s="56"/>
     </row>
@@ -7200,7 +7213,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -7210,16 +7223,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K6" s="56"/>
     </row>
@@ -7231,7 +7244,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -7241,16 +7254,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="K7" s="56"/>
     </row>
@@ -7262,7 +7275,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -7272,13 +7285,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="J8" s="51">
         <v>1234567</v>
@@ -7293,7 +7306,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -7303,13 +7316,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>92</v>
@@ -7400,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -7435,7 +7448,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>112</v>
@@ -7444,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G3" s="63" t="str">
         <f>連絡先!G3</f>
@@ -7472,7 +7485,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -7507,7 +7520,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -7542,7 +7555,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -7577,7 +7590,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -7612,7 +7625,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>112</v>
@@ -7649,7 +7662,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>112</v>
@@ -7776,7 +7789,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>112</v>
@@ -7813,16 +7826,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G3" s="63" t="str">
         <f>連絡先!G3</f>
@@ -7850,13 +7863,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -7887,13 +7900,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -7924,13 +7937,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -7961,13 +7974,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>568</v>
-      </c>
       <c r="E7" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -7998,7 +8011,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -8033,7 +8046,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -8146,7 +8159,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -8181,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G3" s="63" t="str">
         <f>連絡先!G3</f>
@@ -8218,13 +8231,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -8255,13 +8268,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -8292,13 +8305,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -8329,7 +8342,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="5">
@@ -8364,7 +8377,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="5">
@@ -8399,13 +8412,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -8436,7 +8449,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18">
@@ -8446,16 +8459,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K10" s="56"/>
     </row>
@@ -8467,7 +8480,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18">
@@ -8477,16 +8490,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -8570,7 +8583,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>10</v>
@@ -8586,7 +8599,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25">
@@ -8596,10 +8609,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>24</v>
@@ -8617,7 +8630,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25">
@@ -8627,16 +8640,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -8648,7 +8661,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25">
@@ -8658,10 +8671,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>24</v>
@@ -8679,7 +8692,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25">
@@ -8689,16 +8702,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K5" s="54"/>
     </row>
@@ -8710,7 +8723,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25">
@@ -8720,10 +8733,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>24</v>
@@ -8741,7 +8754,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25">
@@ -8751,16 +8764,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K7" s="54"/>
     </row>
@@ -8772,7 +8785,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25">
@@ -8782,16 +8795,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K8" s="54"/>
     </row>
@@ -8803,7 +8816,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50">
@@ -8813,16 +8826,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K9" s="54"/>
     </row>
@@ -8834,7 +8847,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25">
@@ -8844,16 +8857,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K10" s="54"/>
     </row>
@@ -8865,7 +8878,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25">
@@ -8875,16 +8888,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K11" s="54"/>
     </row>
@@ -8896,7 +8909,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25">
@@ -8906,16 +8919,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K12" s="54"/>
     </row>
@@ -8927,7 +8940,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25">
@@ -8937,10 +8950,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>24</v>
@@ -8958,7 +8971,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25">
@@ -8968,16 +8981,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K14" s="54"/>
     </row>
@@ -9077,7 +9090,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -9087,16 +9100,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K2" s="56"/>
     </row>
@@ -9108,7 +9121,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -9118,16 +9131,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -9139,7 +9152,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -9149,16 +9162,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="K4" s="56"/>
     </row>
@@ -9170,7 +9183,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -9180,13 +9193,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J5" s="10">
         <v>0</v>
@@ -9201,7 +9214,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -9211,16 +9224,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="K6" s="56"/>
     </row>
@@ -9232,7 +9245,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -9242,13 +9255,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J7" s="10">
         <v>5</v>
@@ -9263,7 +9276,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -9273,16 +9286,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>169</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K8" s="56"/>
     </row>
@@ -9294,7 +9307,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -9304,16 +9317,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>169</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K9" s="56"/>
     </row>
@@ -9325,7 +9338,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -9335,16 +9348,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K10" s="56"/>
     </row>
@@ -9356,7 +9369,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -9366,16 +9379,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -9387,7 +9400,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -9397,16 +9410,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -9418,7 +9431,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -9428,16 +9441,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K13" s="56"/>
     </row>
@@ -9449,7 +9462,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -9459,16 +9472,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K14" s="56"/>
     </row>
@@ -9480,7 +9493,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -9490,13 +9503,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="56"/>
@@ -9582,7 +9595,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -9592,16 +9605,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>45</v>
@@ -9615,7 +9628,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -9624,19 +9637,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>21</v>
@@ -9650,7 +9663,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -9660,16 +9673,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>21</v>
@@ -9683,7 +9696,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -9693,16 +9706,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>21</v>
@@ -9716,7 +9729,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -9726,16 +9739,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>21</v>
@@ -9749,7 +9762,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -9759,16 +9772,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>45</v>
@@ -9782,7 +9795,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -9792,16 +9805,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K8" s="54" t="s">
         <v>45</v>
@@ -9815,7 +9828,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -9827,13 +9840,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>92</v>
@@ -9848,7 +9861,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -9858,13 +9871,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J10" s="10">
         <v>10000</v>
@@ -9881,7 +9894,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -9891,16 +9904,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -9912,7 +9925,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -9922,16 +9935,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -9943,7 +9956,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -9953,10 +9966,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>274</v>
@@ -10059,16 +10072,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>45</v>
@@ -10082,7 +10095,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -10092,16 +10105,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>21</v>
@@ -10115,7 +10128,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -10127,16 +10140,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>21</v>
@@ -10150,7 +10163,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
@@ -10162,16 +10175,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>21</v>
@@ -10185,7 +10198,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
@@ -10197,16 +10210,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>21</v>
@@ -10230,16 +10243,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>45</v>
@@ -10263,16 +10276,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>45</v>
@@ -10298,16 +10311,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="K9" s="56" t="s">
         <v>45</v>
@@ -10321,7 +10334,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -10331,16 +10344,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="K10" s="56"/>
     </row>
@@ -10362,16 +10375,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -10383,7 +10396,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
@@ -10395,13 +10408,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>92</v>
@@ -10416,7 +10429,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -10426,16 +10439,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="K13" s="56"/>
     </row>
@@ -10447,7 +10460,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
@@ -10457,13 +10470,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J14" s="10">
         <v>100</v>
@@ -10478,7 +10491,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -10488,16 +10501,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="K15" s="56"/>
     </row>
@@ -10509,26 +10522,26 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="K16" s="56" t="s">
         <v>21</v>
@@ -10542,7 +10555,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -10552,13 +10565,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J17" s="51">
         <v>100</v>
@@ -10575,7 +10588,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
@@ -10585,13 +10598,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="63" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J18" s="51">
         <v>300</v>
@@ -10608,7 +10621,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
@@ -10618,13 +10631,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J19" s="51">
         <v>12</v>
@@ -10641,7 +10654,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -10651,13 +10664,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J20" s="51">
         <v>3</v>
@@ -10674,7 +10687,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -10684,13 +10697,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J21" s="51">
         <v>1</v>
@@ -10707,7 +10720,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -10717,16 +10730,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="K22" s="56" t="s">
         <v>21</v>
@@ -10740,7 +10753,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
@@ -10750,16 +10763,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K23" s="56" t="s">
         <v>21</v>
@@ -10773,7 +10786,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
@@ -10783,16 +10796,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="K24" s="56"/>
     </row>
@@ -10804,7 +10817,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
@@ -10814,10 +10827,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>274</v>
@@ -10837,7 +10850,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
@@ -10847,10 +10860,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>278</v>
@@ -10883,8 +10896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -10958,16 +10971,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>45</v>
@@ -10981,7 +10994,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -10991,16 +11004,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -11012,7 +11025,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -11022,16 +11035,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="K4" s="56"/>
     </row>
@@ -11043,7 +11056,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
@@ -11055,16 +11068,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>21</v>
@@ -11078,7 +11091,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
@@ -11090,16 +11103,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>21</v>
@@ -11113,7 +11126,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
@@ -11125,16 +11138,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="K7" s="56" t="s">
         <v>21</v>
@@ -11158,16 +11171,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>45</v>
@@ -11191,16 +11204,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="K9" s="56"/>
     </row>
@@ -11212,7 +11225,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -11224,13 +11237,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>92</v>
@@ -11245,7 +11258,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -11255,16 +11268,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -11286,16 +11299,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>169</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -11317,10 +11330,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>169</v>
@@ -11348,16 +11361,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="K14" s="56"/>
     </row>
@@ -11369,7 +11382,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -11379,16 +11392,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K15" s="56"/>
     </row>
@@ -11400,7 +11413,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
@@ -11410,16 +11423,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="K16" s="56"/>
     </row>
@@ -11431,7 +11444,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -11441,13 +11454,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>275</v>
@@ -11557,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>103</v>
@@ -11588,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>107</v>
@@ -11619,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>110</v>
@@ -11735,7 +11748,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>113</v>
@@ -11766,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>27</v>
@@ -11797,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>31</v>
@@ -11828,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>122</v>
@@ -11859,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>125</v>
@@ -11892,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>128</v>
@@ -11925,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>131</v>
@@ -11960,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>133</v>
@@ -11993,7 +12006,7 @@
         <v>136</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>137</v>
@@ -12028,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>139</v>
@@ -12061,7 +12074,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>142</v>
@@ -12092,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>145</v>
@@ -12123,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>148</v>
@@ -12156,7 +12169,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>151</v>
@@ -12189,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>154</v>
@@ -12220,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>157</v>
@@ -12251,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>160</v>
@@ -12282,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>163</v>
@@ -12315,7 +12328,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>166</v>
@@ -12348,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>168</v>
@@ -12381,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>172</v>
@@ -12414,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>175</v>
@@ -12445,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>178</v>
@@ -12478,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>181</v>
@@ -12513,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>183</v>
@@ -12546,7 +12559,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="60" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>186</v>
@@ -12579,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>189</v>
@@ -12613,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>192</v>
@@ -12649,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>195</v>
@@ -12684,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="60" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="H31" s="26" t="s">
         <v>197</v>
@@ -12715,7 +12728,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="H32" s="26" t="s">
         <v>200</v>
@@ -12728,7 +12741,7 @@
       </c>
       <c r="K32" s="54"/>
     </row>
-    <row r="33" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -12746,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="60" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H33" s="26" t="s">
         <v>203</v>
@@ -12779,7 +12792,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="60" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>206</v>
@@ -12810,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="60" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>209</v>
@@ -12823,7 +12836,7 @@
       </c>
       <c r="K35" s="54"/>
     </row>
-    <row r="36" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -12841,7 +12854,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>212</v>
@@ -12876,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>215</v>
@@ -12909,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>218</v>
@@ -12940,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>221</v>
@@ -12973,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>223</v>
@@ -13006,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="60" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>226</v>
@@ -13037,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>229</v>
@@ -13070,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="61" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>231</v>
@@ -13101,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>234</v>
@@ -13114,7 +13127,7 @@
       </c>
       <c r="K44" s="54"/>
     </row>
-    <row r="45" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="24">
         <v>44</v>
       </c>
@@ -13132,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="60" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>237</v>
@@ -13163,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="H46" s="44" t="s">
         <v>239</v>
@@ -13194,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="H47" s="44" t="s">
         <v>242</v>
@@ -13207,7 +13220,7 @@
       </c>
       <c r="K47" s="54"/>
     </row>
-    <row r="48" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="24">
         <v>47</v>
       </c>
@@ -13225,7 +13238,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="H48" s="44" t="s">
         <v>244</v>
@@ -13238,7 +13251,7 @@
       </c>
       <c r="K48" s="54"/>
     </row>
-    <row r="49" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="24">
         <v>48</v>
       </c>
@@ -13256,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>247</v>
@@ -13287,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="60" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="H50" s="44" t="s">
         <v>250</v>
@@ -13318,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="60" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="H51" s="44" t="s">
         <v>252</v>
@@ -13349,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="60" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="H52" s="44" t="s">
         <v>255</v>
@@ -13382,7 +13395,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="60" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="H53" s="44" t="s">
         <v>258</v>
@@ -13413,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="61" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="H54" s="44" t="s">
         <v>261</v>
@@ -13444,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="H55" s="44" t="s">
         <v>264</v>
@@ -13475,7 +13488,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="61" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>267</v>
@@ -13488,7 +13501,7 @@
       </c>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -13506,7 +13519,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="60" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H57" s="44" t="s">
         <v>270</v>
@@ -13519,7 +13532,7 @@
       </c>
       <c r="K57" s="54"/>
     </row>
-    <row r="58" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="24">
         <v>57</v>
       </c>
@@ -13539,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="61" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>273</v>
@@ -13554,7 +13567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="24">
         <v>58</v>
       </c>
@@ -13572,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="61" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>277</v>
@@ -13585,7 +13598,7 @@
       </c>
       <c r="K59" s="54"/>
     </row>
-    <row r="60" spans="1:11" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="24">
         <v>59</v>
       </c>
@@ -13603,7 +13616,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="61" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H60" s="26" t="s">
         <v>281</v>
@@ -13655,8 +13668,8 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -13665,7 +13678,7 @@
     <col min="2" max="2" width="15" style="39" customWidth="1"/>
     <col min="3" max="3" width="40.25" style="39" customWidth="1"/>
     <col min="4" max="6" width="4.58203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.4140625" style="41" customWidth="1"/>
     <col min="8" max="8" width="80.58203125" style="39" customWidth="1"/>
     <col min="9" max="9" width="25.58203125" style="39" customWidth="1"/>
     <col min="10" max="10" width="52.58203125" style="39" customWidth="1"/>
@@ -13732,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>285</v>
@@ -13765,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>288</v>
@@ -13798,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>290</v>
@@ -13833,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>293</v>
@@ -13868,7 +13881,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>296</v>
@@ -13901,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>299</v>
@@ -13934,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>302</v>
@@ -13965,7 +13978,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>305</v>
@@ -13996,16 +14009,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>308</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="J10" s="43">
-        <v>35.680959100000003</v>
+        <v>35.680959000000001</v>
       </c>
       <c r="K10" s="54"/>
     </row>
@@ -14027,16 +14040,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>310</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="J11" s="43">
-        <v>139.7673068</v>
+        <v>139.76730599999999</v>
       </c>
       <c r="K11" s="54"/>
     </row>
@@ -14058,7 +14071,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>312</v>
@@ -14089,16 +14102,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>853</v>
+        <v>968</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>315</v>
+        <v>969</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>317</v>
+        <v>970</v>
       </c>
       <c r="K13" s="54"/>
     </row>
@@ -14110,7 +14123,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50">
@@ -14120,16 +14133,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K14" s="54" t="s">
         <v>45</v>
@@ -14143,7 +14156,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25">
@@ -14153,16 +14166,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>855</v>
+        <v>965</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K15" s="54"/>
     </row>
@@ -14174,7 +14187,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25">
@@ -14184,16 +14197,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K16" s="54" t="s">
         <v>21</v>
@@ -14207,7 +14220,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25">
@@ -14217,16 +14230,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K17" s="54" t="s">
         <v>21</v>
@@ -14240,7 +14253,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25">
@@ -14250,16 +14263,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K18" s="54"/>
     </row>
@@ -14271,7 +14284,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25">
@@ -14281,16 +14294,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K19" s="54"/>
     </row>
@@ -14302,7 +14315,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25">
@@ -14312,16 +14325,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K20" s="54"/>
     </row>
@@ -14333,7 +14346,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25">
@@ -14343,10 +14356,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I21" s="26" t="s">
         <v>24</v>
@@ -14364,7 +14377,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25">
@@ -14374,10 +14387,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I22" s="26" t="s">
         <v>24</v>
@@ -14395,7 +14408,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25">
@@ -14405,16 +14418,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K23" s="54"/>
     </row>
@@ -14426,7 +14439,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25">
@@ -14436,16 +14449,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I24" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K24" s="54"/>
     </row>
@@ -14457,7 +14470,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25">
@@ -14467,16 +14480,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K25" s="54"/>
     </row>
@@ -14488,7 +14501,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25">
@@ -14498,16 +14511,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I26" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K26" s="54"/>
     </row>
@@ -14619,19 +14632,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>964</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>971</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>21</v>
@@ -14646,7 +14659,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>112</v>
@@ -14658,16 +14671,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>45</v>
@@ -14682,7 +14695,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>112</v>
@@ -14694,16 +14707,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>45</v>
@@ -14718,7 +14731,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>112</v>
@@ -14730,16 +14743,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>21</v>
@@ -14754,7 +14767,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>112</v>
@@ -14766,16 +14779,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>21</v>
@@ -14790,7 +14803,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -14800,16 +14813,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K7" s="56"/>
       <c r="L7" s="1"/>
@@ -14822,7 +14835,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -14832,16 +14845,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="1"/>
@@ -14854,7 +14867,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -14864,16 +14877,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K9" s="56" t="s">
         <v>21</v>
@@ -14888,7 +14901,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -14898,16 +14911,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>21</v>
@@ -14922,7 +14935,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
@@ -14932,16 +14945,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K11" s="56"/>
       <c r="L11" s="1"/>
@@ -14954,26 +14967,26 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>21</v>
@@ -14988,26 +15001,26 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K13" s="56" t="s">
         <v>21</v>
@@ -15022,26 +15035,26 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K14" s="56"/>
       <c r="L14" s="1"/>
@@ -15054,7 +15067,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -15064,16 +15077,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K15" s="56"/>
       <c r="L15" s="1"/>
@@ -15086,7 +15099,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
@@ -15096,16 +15109,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K16" s="56"/>
       <c r="L16" s="1"/>
@@ -15118,7 +15131,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -15128,16 +15141,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K17" s="56"/>
       <c r="L17" s="1"/>
@@ -15150,7 +15163,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>112</v>
@@ -15162,16 +15175,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="63" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K18" s="56"/>
       <c r="L18" s="1"/>
@@ -15184,7 +15197,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
@@ -15194,16 +15207,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="1"/>
@@ -15216,7 +15229,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -15226,16 +15239,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K20" s="56"/>
       <c r="L20" s="1"/>
@@ -15248,7 +15261,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -15258,13 +15271,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J21" s="10">
         <v>21</v>
@@ -15280,7 +15293,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -15290,13 +15303,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J22" s="10">
         <v>155</v>
@@ -15312,7 +15325,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
@@ -15322,13 +15335,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J23" s="10">
         <v>40</v>
@@ -15344,7 +15357,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
@@ -15354,16 +15367,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K24" s="56"/>
     </row>
@@ -15375,7 +15388,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
@@ -15385,16 +15398,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K25" s="56"/>
     </row>
@@ -15406,26 +15419,26 @@
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K26" s="56"/>
     </row>
@@ -15437,7 +15450,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5">
@@ -15447,16 +15460,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K27" s="57"/>
     </row>
@@ -15468,7 +15481,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5">
@@ -15478,16 +15491,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K28" s="57"/>
     </row>
@@ -15499,7 +15512,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5">
@@ -15509,16 +15522,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K29" s="56"/>
     </row>
@@ -15530,7 +15543,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5">
@@ -15540,16 +15553,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="63" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K30" s="56"/>
     </row>
@@ -15561,7 +15574,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
@@ -15571,16 +15584,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K31" s="56"/>
     </row>
@@ -15592,7 +15605,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5">
@@ -15602,16 +15615,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K32" s="56"/>
     </row>
@@ -15623,7 +15636,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
@@ -15633,13 +15646,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J33" s="30" t="s">
         <v>92</v>
@@ -15656,26 +15669,26 @@
         <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G34" s="63" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K34" s="56"/>
     </row>
@@ -15699,16 +15712,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="63" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K35" s="56" t="s">
         <v>45</v>
@@ -15801,7 +15814,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>112</v>
@@ -15813,16 +15826,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>21</v>
@@ -15836,7 +15849,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>112</v>
@@ -15848,16 +15861,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -15880,8 +15893,8 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -15945,7 +15958,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>112</v>
@@ -15957,16 +15970,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>461</v>
+        <v>966</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>21</v>
@@ -15980,7 +15993,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>112</v>
@@ -15992,16 +16005,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>464</v>
+        <v>967</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -16089,7 +16102,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>112</v>
@@ -16101,16 +16114,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K2" s="56"/>
     </row>
@@ -16122,7 +16135,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>112</v>
@@ -16134,16 +16147,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -16251,7 +16264,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>112</v>
@@ -16263,16 +16276,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>21</v>
@@ -16286,7 +16299,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>112</v>
@@ -16298,16 +16311,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K3" s="56" t="s">
         <v>21</v>
@@ -16321,7 +16334,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>112</v>
@@ -16333,16 +16346,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>21</v>
@@ -16356,7 +16369,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>112</v>
@@ -16368,16 +16381,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>21</v>
@@ -16401,16 +16414,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K6" s="54" t="s">
         <v>45</v>
@@ -16424,7 +16437,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>112</v>
@@ -16436,13 +16449,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J7" s="10">
         <v>1307</v>
@@ -16471,16 +16484,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K8" s="54" t="s">
         <v>45</v>
@@ -16506,16 +16519,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K9" s="54" t="s">
         <v>45</v>
@@ -16529,26 +16542,26 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>21</v>
@@ -16572,16 +16585,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K11" s="56"/>
     </row>
@@ -16593,7 +16606,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -16603,16 +16616,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -16624,7 +16637,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>112</v>
@@ -16636,13 +16649,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>92</v>
@@ -16657,26 +16670,26 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K14" s="56"/>
     </row>
@@ -16688,7 +16701,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>112</v>
@@ -16700,16 +16713,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K15" s="56"/>
     </row>
@@ -16733,10 +16746,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>169</v>
@@ -16766,10 +16779,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>169</v>
@@ -16797,16 +16810,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="63" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K18" s="56"/>
     </row>
@@ -16830,16 +16843,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K19" s="56"/>
     </row>
@@ -16851,7 +16864,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -16861,13 +16874,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J20" s="10">
         <v>1500</v>
@@ -16894,16 +16907,16 @@
         <v>1</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K21" s="56"/>
     </row>
@@ -16925,16 +16938,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K22" s="56"/>
     </row>
@@ -16946,7 +16959,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
@@ -16956,13 +16969,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J23" s="10">
         <v>500</v>
@@ -16989,16 +17002,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K24" s="56"/>
     </row>
@@ -17020,16 +17033,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K25" s="56"/>
     </row>
@@ -17051,16 +17064,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K26" s="56"/>
     </row>
@@ -17072,7 +17085,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5">
@@ -17082,13 +17095,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="J27" s="10">
         <v>13</v>
@@ -17105,7 +17118,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5">
@@ -17115,13 +17128,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="J28" s="10">
         <v>131016</v>
@@ -17138,7 +17151,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5">
@@ -17148,16 +17161,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K29" s="57"/>
     </row>
@@ -17169,7 +17182,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5">
@@ -17179,16 +17192,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="63" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K30" s="56"/>
     </row>
@@ -17200,7 +17213,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
@@ -17210,16 +17223,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K31" s="56"/>
     </row>
@@ -17243,16 +17256,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K32" s="54" t="s">
         <v>45</v>
@@ -17276,10 +17289,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>278</v>
@@ -17307,10 +17320,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="63" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>282</v>
@@ -17348,28 +17361,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17623,33 +17614,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0FEC0B-7A5F-4D4F-A76C-DDB8DE1B399A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17667,4 +17654,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="192" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5727BC67-4EA4-4A45-BEC3-1A99D2AA54D9}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E7C7B3-0997-48E8-BECF-3BA2E0C8164E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="892" activeTab="3" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="892" activeTab="3" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -5249,10 +5249,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>countyGroup</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>"旧姓"</t>
     <rPh sb="1" eb="3">
       <t>キュウセイ</t>
@@ -5285,6 +5281,10 @@
   </si>
   <si>
     <t>EPSG:6668</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>county</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -6091,7 +6091,7 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="64" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -7024,7 +7024,7 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -7348,7 +7348,7 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -7722,7 +7722,7 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -8092,7 +8092,7 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -8534,7 +8534,7 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -9025,7 +9025,7 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="64" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -9530,7 +9530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -9997,7 +9997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -10896,7 +10896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -11495,8 +11495,8 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -11671,7 +11671,7 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -13668,9 +13668,7 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14102,16 +14100,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="H13" s="48" t="s">
         <v>968</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>969</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K13" s="54"/>
     </row>
@@ -14166,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>320</v>
@@ -14558,7 +14556,7 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="64" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="64" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -15893,7 +15891,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -15979,7 +15977,7 @@
         <v>361</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K2" s="56" t="s">
         <v>21</v>
@@ -16014,7 +16012,7 @@
         <v>361</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K3" s="56"/>
     </row>
@@ -16037,7 +16035,7 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -16199,7 +16197,7 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -17361,6 +17359,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17614,29 +17634,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0FEC0B-7A5F-4D4F-A76C-DDB8DE1B399A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17654,30 +17678,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="195" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E7C7B3-0997-48E8-BECF-3BA2E0C8164E}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776D19B9-8E2A-41B8-8AFC-50C6EBA502EB}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="892" activeTab="3" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="892" activeTab="10" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="980">
   <si>
     <t>No.</t>
   </si>
@@ -5285,6 +5285,57 @@
   </si>
   <si>
     <t>county</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>戸籍氏</t>
+    <rPh sb="0" eb="2">
+      <t>コセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>戸籍名</t>
+    <rPh sb="0" eb="2">
+      <t>コセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>familyRegisterFamilyName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>familyRegisterGivenName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>戸籍上の姓</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>戸籍上の名</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>n(*1)</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -5483,7 +5534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5677,6 +5728,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7025,7 +7079,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -7188,8 +7242,8 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
+      <c r="F5" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>915</v>
@@ -7348,8 +7402,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -7526,8 +7580,8 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
+      <c r="F5" s="5" t="s">
+        <v>978</v>
       </c>
       <c r="G5" s="63" t="str">
         <f>連絡先!G5</f>
@@ -7723,7 +7777,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -7832,7 +7886,7 @@
         <v>563</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>564</v>
+        <v>979</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>352</v>
@@ -7906,7 +7960,7 @@
         <v>563</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>564</v>
+        <v>979</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -8093,7 +8147,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -8200,7 +8254,7 @@
         <v>563</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>564</v>
+        <v>979</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>352</v>
@@ -8274,7 +8328,7 @@
         <v>563</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>564</v>
+        <v>979</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -13668,7 +13722,7 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14554,10 +14608,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <selection activeCell="D36" sqref="A36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -15724,6 +15778,68 @@
       <c r="K35" s="56" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="66">
+        <v>0</v>
+      </c>
+      <c r="F36" s="66">
+        <v>1</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>974</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K36" s="56"/>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="66">
+        <v>0</v>
+      </c>
+      <c r="F37" s="66">
+        <v>1</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>975</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="K37" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -17359,28 +17475,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17634,10 +17728,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0FEC0B-7A5F-4D4F-A76C-DDB8DE1B399A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17661,21 +17789,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0FEC0B-7A5F-4D4F-A76C-DDB8DE1B399A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="229" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776D19B9-8E2A-41B8-8AFC-50C6EBA502EB}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{751A40C7-3D59-408B-A1A4-5A43341D4BB9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="892" activeTab="10" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="892" activeTab="13" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="981">
   <si>
     <t>No.</t>
   </si>
@@ -5335,7 +5335,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>n(*1)</t>
+    <t>ｎ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>１(*1)</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -7402,7 +7406,7 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -7777,7 +7781,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -7886,7 +7890,7 @@
         <v>563</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>352</v>
@@ -7960,10 +7964,10 @@
         <v>563</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>979</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
       </c>
       <c r="G5" s="63" t="str">
         <f>連絡先!G5</f>
@@ -8254,7 +8258,7 @@
         <v>563</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>352</v>
@@ -8328,10 +8332,10 @@
         <v>563</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
+        <v>980</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="G5" s="63" t="str">
         <f>連絡先!G5</f>
@@ -8588,7 +8592,7 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -17475,6 +17479,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17728,44 +17754,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0FEC0B-7A5F-4D4F-A76C-DDB8DE1B399A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17789,9 +17781,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0FEC0B-7A5F-4D4F-A76C-DDB8DE1B399A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
+++ b/430_コアデータモデル/438_コアデータモデル_DMD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="235" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{751A40C7-3D59-408B-A1A4-5A43341D4BB9}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="11_933A4B1E01F1817701C86F1513E2357C01797C9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E29BE37-072B-4FFB-B8B8-6C2259D2CD5C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="892" activeTab="13" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="892" activeTab="4" xr2:uid="{78C83373-480B-41B4-8FDF-AA1B1F97CA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="法人" sheetId="11" r:id="rId1"/>
@@ -5538,7 +5538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5732,9 +5732,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8592,8 +8589,8 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -14614,8 +14611,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <selection activeCell="D36" sqref="A36:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -15794,10 +15791,10 @@
         <v>972</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="66">
-        <v>0</v>
-      </c>
-      <c r="F36" s="66">
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="63" t="s">
@@ -15825,10 +15822,10 @@
         <v>973</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="66">
-        <v>0</v>
-      </c>
-      <c r="F37" s="66">
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
         <v>1</v>
       </c>
       <c r="G37" s="63" t="s">
@@ -17479,28 +17476,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17754,33 +17729,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0FEC0B-7A5F-4D4F-A76C-DDB8DE1B399A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17798,4 +17769,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9B588-A014-4E8B-85C6-705A0FAE745C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0661D428-537E-4451-8140-53B35794E758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>